--- a/Correspondence.xlsx
+++ b/Correspondence.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XF\Desktop\JiuZhou_copy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A4643EAB-7A2B-4B0D-B946-1232F4639D50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56BF2D7-27BF-498A-9E22-4F7AFDB97A0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Correspondence" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="284">
   <si>
     <t>Current Name</t>
   </si>
@@ -511,10 +511,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>no-Approval;Unmatched ERC-20 standard</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Re-entrancy </t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -766,13 +762,364 @@
   </si>
   <si>
     <t>https://github.com/ballesterosbr/contracts</t>
+  </si>
+  <si>
+    <t>Block Properties Dependence</t>
+  </si>
+  <si>
+    <t>Coding Conventions</t>
+  </si>
+  <si>
+    <t>DoS</t>
+  </si>
+  <si>
+    <t>Floating-point and precision issues</t>
+  </si>
+  <si>
+    <t>Integer OverflowsUnderflows</t>
+  </si>
+  <si>
+    <t>Misuse of tx.origin for authorization</t>
+  </si>
+  <si>
+    <t>Race Condition</t>
+  </si>
+  <si>
+    <t>Risk of using approve</t>
+  </si>
+  <si>
+    <t>Uninitialized storage pointers</t>
+  </si>
+  <si>
+    <t>State Variables are public on chain</t>
+  </si>
+  <si>
+    <t>Security Risks caused during development</t>
+  </si>
+  <si>
+    <t>Misuse of Low-level Function</t>
+  </si>
+  <si>
+    <t>Ether Transactions risks</t>
+  </si>
+  <si>
+    <t>https://github.com/Lianantech/ETH-Security</t>
+  </si>
+  <si>
+    <t>Unitialized Library</t>
+  </si>
+  <si>
+    <t>Tx.origin Authentication</t>
+  </si>
+  <si>
+    <t>Short Address Attack</t>
+  </si>
+  <si>
+    <t>RTLO Character</t>
+  </si>
+  <si>
+    <t>Public Secrecy</t>
+  </si>
+  <si>
+    <t>Storage Variables to Memory</t>
+  </si>
+  <si>
+    <t>Overwriting Arbitrary Storage Variables</t>
+  </si>
+  <si>
+    <t>Integer Overflow and Underflow</t>
+  </si>
+  <si>
+    <t>Front Running</t>
+  </si>
+  <si>
+    <t>Forcing Ether</t>
+  </si>
+  <si>
+    <t>Floating Points</t>
+  </si>
+  <si>
+    <t>External Referencing</t>
+  </si>
+  <si>
+    <t>Exceeding Block Gas Limit</t>
+  </si>
+  <si>
+    <t>Denial of Service</t>
+  </si>
+  <si>
+    <t>https://github.com/iuwqyir/Smart-Contract-Vulnerabilities</t>
+  </si>
+  <si>
+    <t>forced_ether_reception</t>
+  </si>
+  <si>
+    <t>no-Approval</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unmatched ERC-20 standard</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>incorrect_interface</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer_overflow</t>
+  </si>
+  <si>
+    <t>race_condition</t>
+  </si>
+  <si>
+    <t>unchecked_external_call</t>
+  </si>
+  <si>
+    <t>unprotected_function</t>
+  </si>
+  <si>
+    <t>variable shadowing</t>
+  </si>
+  <si>
+    <t>wrong_constructor_name</t>
+  </si>
+  <si>
+    <t>https://github.com/mahyarx/Smart-Contract-Vulnerabilities</t>
+  </si>
+  <si>
+    <t>bad-randomness.sol</t>
+  </si>
+  <si>
+    <t>integer-overflow.sol</t>
+  </si>
+  <si>
+    <t>re-entrancy.sol</t>
+  </si>
+  <si>
+    <t>short-address-attack.sol</t>
+  </si>
+  <si>
+    <t>https://github.com/TEAM-C4B/Smart-Contract-Vuln-Mitigation</t>
+  </si>
+  <si>
+    <t>https://github.com/tr0y-kim/Smart-Contract-Vuln-Mitigation</t>
+  </si>
+  <si>
+    <t>reentry vulnerability </t>
+  </si>
+  <si>
+    <t>https://github.com/juanluislm/SmartContract-Detection-Based-DeepLearning</t>
+  </si>
+  <si>
+    <t>Reentrancy vulnerability</t>
+  </si>
+  <si>
+    <t>https://github.com/qiongxiao/VulDeeSmartContract</t>
+  </si>
+  <si>
+    <t>infinite_loop</t>
+  </si>
+  <si>
+    <t>https://github.com/Messi-Q/GGNNSmartVulDetector/tree/master/train_data</t>
+  </si>
+  <si>
+    <t>Bank.sol</t>
+  </si>
+  <si>
+    <t>https://github.com/Ceesvanwijk/vulnerable-bank</t>
+  </si>
+  <si>
+    <t>vulnerable to reentrancy attack</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/howy1993/dao_vulnerability</t>
+  </si>
+  <si>
+    <t>underflow/overflow attacks</t>
+  </si>
+  <si>
+    <t>https://github.com/paulinablaszk/hello-zos</t>
+  </si>
+  <si>
+    <t>https://github.com/ConsenSys/smart-contract-best-practices/blob/master/README-zh.md</t>
+  </si>
+  <si>
+    <t>some forms of the DAO bug</t>
+  </si>
+  <si>
+    <t>locked ether</t>
+  </si>
+  <si>
+    <t>transaction ordering-dependent amount, receiver and transfer</t>
+  </si>
+  <si>
+    <t>unhandled exceptions</t>
+  </si>
+  <si>
+    <t>unrestricted ether flow</t>
+  </si>
+  <si>
+    <t>https://github.com/eth-sri/securify</t>
+  </si>
+  <si>
+    <t>bad_randomness/theRun_source_code</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>整数上溢和下溢</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>重入</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>通过区块</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Gas Limit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>发动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DoS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Unexpected) Throw</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>发动</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>DoS</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>时间戳依赖</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>交易顺序依赖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">(TOD) / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>前面的先运行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>跨函数竞态</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="21" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -942,8 +1289,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF24292E"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
@@ -1376,27 +1729,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1753,1617 +2109,2369 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C159"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B88" sqref="B88"/>
+    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="88" workbookViewId="0">
+      <selection activeCell="A133" sqref="A133:A150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.9140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.9140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="87.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="84.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="B9" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A21" s="6"/>
+      <c r="B21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" t="s">
+      <c r="C27" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C30" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
+      <c r="B36" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
+      <c r="B40" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+      <c r="B41" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+      <c r="B42" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="B47" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="B48" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="B49" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A50" s="4"/>
+      <c r="B50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A51" s="4"/>
+      <c r="B51" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A52" s="4"/>
+      <c r="B52" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A53" s="4"/>
+      <c r="B53" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A54" s="4"/>
+      <c r="B54" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A55" s="4"/>
+      <c r="B55" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A56" s="4"/>
+      <c r="B56" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A57" s="4"/>
+      <c r="B57" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A58" s="4"/>
+      <c r="B58" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A59" s="4"/>
+      <c r="B59" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A60" s="4"/>
+      <c r="B60" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A61" s="4"/>
+      <c r="B61" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A62" s="4"/>
+      <c r="B62" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A63" s="4"/>
+      <c r="B63" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A64" s="4"/>
+      <c r="B64" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A65" s="4"/>
+      <c r="B65" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="1" t="s">
+    <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A66" s="4"/>
+      <c r="B66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A68" s="6"/>
+      <c r="B68" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A69" s="6"/>
+      <c r="B69" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A70" s="6"/>
+      <c r="B70" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A71" s="6"/>
+      <c r="B71" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A72" s="6"/>
+      <c r="B72" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A73" s="6"/>
+      <c r="B73" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A74" s="6"/>
+      <c r="B74" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A75" s="6"/>
+      <c r="B75" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A77" s="6"/>
+      <c r="B77" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A78" s="6"/>
+      <c r="B78" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A79" s="6"/>
+      <c r="B79" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A80" s="6"/>
+      <c r="B80" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A81" s="6"/>
+      <c r="B81" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A82" s="6"/>
+      <c r="B82" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A84" s="6"/>
+      <c r="B84" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A85" s="6"/>
+      <c r="B85" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A86" s="6"/>
+      <c r="B86" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A87" s="6"/>
+      <c r="B87" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A88" s="6"/>
+      <c r="B88" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A90" s="4"/>
+      <c r="B90" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A92" s="4"/>
+      <c r="B92" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A93" s="4"/>
+      <c r="B93" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A94" s="4"/>
+      <c r="B94" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A97" s="4"/>
+      <c r="B97" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A98" s="4"/>
+      <c r="B98" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A99" s="4"/>
+      <c r="B99" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A100" s="4"/>
+      <c r="B100" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A102" s="6"/>
+      <c r="B102" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A104" s="4"/>
+      <c r="B104" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A105" s="4"/>
+      <c r="B105" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A106" s="4"/>
+      <c r="B106" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A107" s="4"/>
+      <c r="B107" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A108" s="4"/>
+      <c r="B108" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A109" s="4"/>
+      <c r="B109" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A110" s="4"/>
+      <c r="B110" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A111" s="4"/>
+      <c r="B111" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A112" s="4"/>
+      <c r="B112" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A113" s="4"/>
+      <c r="B113" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A114" s="4"/>
+      <c r="B114" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A115" s="4"/>
+      <c r="B115" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A117" s="4"/>
+      <c r="B117" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A120" s="4"/>
+      <c r="B120" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A121" s="4"/>
+      <c r="B121" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A122" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A123" s="6"/>
+      <c r="B123" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A124" s="6"/>
+      <c r="B124" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A125" s="6"/>
+      <c r="B125" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A126" s="6"/>
+      <c r="B126" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A127" s="6"/>
+      <c r="B127" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A128" s="6"/>
+      <c r="B128" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A129" s="6"/>
+      <c r="B129" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A130" s="6"/>
+      <c r="B130" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A131" s="6"/>
+      <c r="B131" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A132" s="6"/>
+      <c r="B132" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A133" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A134" s="6"/>
+      <c r="B134" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A135" s="6"/>
+      <c r="B135" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A136" s="6"/>
+      <c r="B136" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A137" s="6"/>
+      <c r="B137" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A138" s="6"/>
+      <c r="B138" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A139" s="6"/>
+      <c r="B139" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A140" s="6"/>
+      <c r="B140" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A141" s="6"/>
+      <c r="B141" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A142" s="6"/>
+      <c r="B142" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A143" s="6"/>
+      <c r="B143" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A144" s="6"/>
+      <c r="B144" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A145" s="6"/>
+      <c r="B145" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A146" s="6"/>
+      <c r="B146" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A147" s="6"/>
+      <c r="B147" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A148" s="6"/>
+      <c r="B148" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A149" s="6"/>
+      <c r="B149" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A150" s="6"/>
+      <c r="B150" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A151" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A152" s="6"/>
+      <c r="B152" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A153" s="6"/>
+      <c r="B153" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A154" s="6"/>
+      <c r="B154" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A155" s="6"/>
+      <c r="B155" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A156" s="6"/>
+      <c r="B156" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A157" s="6"/>
+      <c r="B157" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C157" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A158" s="6"/>
+      <c r="B158" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A159" s="6"/>
+      <c r="B159" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A160" s="6"/>
+      <c r="B160" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A161" s="6"/>
+      <c r="B161" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A162" s="6"/>
+      <c r="B162" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A163" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A164" s="4"/>
+      <c r="B164" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A165" s="4"/>
+      <c r="B165" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A166" s="4"/>
+      <c r="B166" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C166" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A167" s="4"/>
+      <c r="B167" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A168" s="4"/>
+      <c r="B168" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A169" s="4"/>
+      <c r="B169" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C169" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A170" s="4"/>
+      <c r="B170" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A171" s="4"/>
+      <c r="B171" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A172" s="4"/>
+      <c r="B172" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A173" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A174" s="4"/>
+      <c r="B174" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C174" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A175" s="4"/>
+      <c r="B175" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A176" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A177" s="6"/>
+      <c r="B177" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
+    </row>
+    <row r="180" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A180" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A181" s="6"/>
+      <c r="B181" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B182" s="3"/>
+      <c r="C182" s="3"/>
+    </row>
+    <row r="183" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A183" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A184" s="6"/>
+      <c r="B184" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A185" s="6"/>
+      <c r="B185" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A186" s="6"/>
+      <c r="B186" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A187" s="6"/>
+      <c r="B187" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A188" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A189" s="4"/>
+      <c r="B189" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A190" s="4"/>
+      <c r="B190" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A191" s="4"/>
+      <c r="B191" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A192" s="4"/>
+      <c r="B192" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C192" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A193" s="4"/>
+      <c r="B193" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A194" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C194" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A195" s="4"/>
+      <c r="B195" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A196" s="4"/>
+      <c r="B196" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A197" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C197" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A198" s="4"/>
+      <c r="B198" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A199" s="4"/>
+      <c r="B199" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="C199" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A200" s="4"/>
+      <c r="B200" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A201" s="4"/>
+      <c r="B201" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C201" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A202" s="4"/>
+      <c r="B202" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C202" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="2" t="s">
+    <row r="203" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A203" s="4"/>
+      <c r="B203" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C203" s="5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
-      <c r="B11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="2" t="s">
+    <row r="204" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A204" s="4"/>
+      <c r="B204" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A205" s="4"/>
+      <c r="B205" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A206" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A207" s="6"/>
+      <c r="B207" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A208" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C208" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" t="s">
-        <v>123</v>
-      </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>166</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" t="s">
-        <v>168</v>
-      </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>170</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" t="s">
-        <v>169</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
-      <c r="B29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="2" t="s">
+    <row r="209" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A209" s="6"/>
+      <c r="B209" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C209" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32" t="s">
+    <row r="210" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A210" s="6"/>
+      <c r="B210" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C210" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A211" s="6"/>
+      <c r="B211" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C211" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A212" s="6"/>
+      <c r="B212" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C212" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A213" s="6"/>
+      <c r="B213" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C213" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A214" s="6"/>
+      <c r="B214" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A215" s="6"/>
+      <c r="B215" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C215" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
-      <c r="B34" t="s">
-        <v>146</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="B35" t="s">
-        <v>125</v>
-      </c>
-      <c r="C35" s="2" t="s">
+    <row r="216" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A217" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B217" s="3"/>
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B218" s="3"/>
+      <c r="C218" s="3"/>
+    </row>
+    <row r="219" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A219" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C219" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A220" s="4"/>
+      <c r="B220" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A221" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A222" s="6"/>
+      <c r="B222" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A223" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C223" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
-      <c r="B36" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="B37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
-      <c r="B38" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-      <c r="B41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" t="s">
+    <row r="224" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A224" s="6"/>
+      <c r="B224" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C224" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B43" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" t="s">
-        <v>172</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="5"/>
-      <c r="B45" t="s">
-        <v>147</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" t="s">
+    <row r="225" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A225" s="6"/>
+      <c r="B225" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C225" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B49" t="s">
-        <v>148</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" t="s">
-        <v>173</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="5"/>
-      <c r="B51" t="s">
-        <v>174</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="5"/>
-      <c r="B52" t="s">
-        <v>128</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="5"/>
-      <c r="B53" t="s">
-        <v>127</v>
-      </c>
-      <c r="C53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B54" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
-      <c r="B55" t="s">
-        <v>91</v>
-      </c>
-      <c r="C55" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="5"/>
-      <c r="B56" t="s">
-        <v>149</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="5"/>
-      <c r="B57" t="s">
-        <v>90</v>
-      </c>
-      <c r="C57" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="5"/>
-      <c r="B58" t="s">
-        <v>32</v>
-      </c>
-      <c r="C58" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B59" t="s">
-        <v>176</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="3"/>
-      <c r="B60" t="s">
-        <v>175</v>
-      </c>
-      <c r="C60" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B61" t="s">
-        <v>177</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="3"/>
-      <c r="B62" t="s">
-        <v>129</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="3"/>
-      <c r="B63" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B65" t="s">
-        <v>179</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="3"/>
-      <c r="B66" t="s">
-        <v>178</v>
-      </c>
-      <c r="C66" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B67" t="s">
-        <v>109</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="5"/>
-      <c r="B68" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="3"/>
-      <c r="B70" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="3"/>
-      <c r="B71" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="3"/>
-      <c r="B72" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="3"/>
-      <c r="B73" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="3"/>
-      <c r="B74" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="3"/>
-      <c r="B75" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="3"/>
-      <c r="B76" t="s">
-        <v>111</v>
-      </c>
-      <c r="C76" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="3"/>
-      <c r="B77" t="s">
-        <v>40</v>
-      </c>
-      <c r="C77" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="3"/>
-      <c r="B78" t="s">
-        <v>41</v>
-      </c>
-      <c r="C78" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B79" t="s">
-        <v>181</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="3"/>
-      <c r="B80" t="s">
-        <v>180</v>
-      </c>
-      <c r="C80" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B81" t="s">
-        <v>163</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B82" t="s">
-        <v>182</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="3"/>
-      <c r="B83" t="s">
-        <v>92</v>
-      </c>
-      <c r="C83" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B84" t="s">
-        <v>150</v>
-      </c>
-      <c r="C84" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="5"/>
-      <c r="B85" t="s">
-        <v>151</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="5"/>
-      <c r="B86" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="5"/>
-      <c r="B87" t="s">
-        <v>153</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="5"/>
-      <c r="B88" t="s">
-        <v>152</v>
-      </c>
-      <c r="C88" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="5"/>
-      <c r="B89" t="s">
-        <v>161</v>
-      </c>
-      <c r="C89" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="5"/>
-      <c r="B90" t="s">
-        <v>46</v>
-      </c>
-      <c r="C90" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B91" t="s">
-        <v>130</v>
-      </c>
-      <c r="C91" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="5"/>
-      <c r="B92" t="s">
-        <v>183</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="5"/>
-      <c r="B93" t="s">
-        <v>154</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="5"/>
-      <c r="B94" t="s">
-        <v>184</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="5"/>
-      <c r="B95" t="s">
-        <v>185</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="5"/>
-      <c r="B96" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="5"/>
-      <c r="B97" t="s">
-        <v>187</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="5"/>
-      <c r="B98" t="s">
-        <v>131</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="5"/>
-      <c r="B99" t="s">
-        <v>48</v>
-      </c>
-      <c r="C99" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" s="5"/>
-      <c r="B100" t="s">
-        <v>186</v>
-      </c>
-      <c r="C100" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="5"/>
-      <c r="B101" t="s">
-        <v>49</v>
-      </c>
-      <c r="C101" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="5"/>
-      <c r="B102" t="s">
-        <v>50</v>
-      </c>
-      <c r="C102" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B103" t="s">
-        <v>133</v>
-      </c>
-      <c r="C103" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="5"/>
-      <c r="B104" t="s">
-        <v>155</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="5"/>
-      <c r="B105" t="s">
-        <v>132</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="5"/>
-      <c r="B106" t="s">
-        <v>94</v>
-      </c>
-      <c r="C106" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="5"/>
-      <c r="B107" t="s">
-        <v>188</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="5"/>
-      <c r="B108" t="s">
-        <v>190</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="5"/>
-      <c r="B109" t="s">
-        <v>189</v>
-      </c>
-      <c r="C109" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="5"/>
-      <c r="B110" t="s">
-        <v>93</v>
-      </c>
-      <c r="C110" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B111" t="s">
-        <v>192</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="3"/>
-      <c r="B112" t="s">
-        <v>191</v>
-      </c>
-      <c r="C112" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A113" s="3"/>
-      <c r="B113" t="s">
-        <v>53</v>
-      </c>
-      <c r="C113" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A114" s="3"/>
-      <c r="B114" t="s">
-        <v>54</v>
-      </c>
-      <c r="C114" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A115" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B115" t="s">
-        <v>194</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A116" s="3"/>
-      <c r="B116" t="s">
-        <v>193</v>
-      </c>
-      <c r="C116" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A117" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B117" t="s">
-        <v>157</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A118" s="5"/>
-      <c r="B118" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C118" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A119" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B119" t="s">
-        <v>58</v>
-      </c>
-      <c r="C119" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A120" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A121" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A122" s="5"/>
-      <c r="B122" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C122" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A123" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A124" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B124" t="s">
-        <v>195</v>
-      </c>
-      <c r="C124" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A125" s="5"/>
-      <c r="B125" t="s">
-        <v>196</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A126" s="5"/>
-      <c r="B126" t="s">
-        <v>96</v>
-      </c>
-      <c r="C126" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A127" s="5"/>
-      <c r="B127" t="s">
-        <v>95</v>
-      </c>
-      <c r="C127" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A128" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B128" t="s">
-        <v>198</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A129" s="3"/>
-      <c r="B129" t="s">
-        <v>199</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A130" s="3"/>
-      <c r="B130" t="s">
-        <v>197</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A131" s="3"/>
-      <c r="B131" t="s">
-        <v>134</v>
-      </c>
-      <c r="C131" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A132" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B132" t="s">
-        <v>201</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A133" s="3"/>
-      <c r="B133" t="s">
-        <v>200</v>
-      </c>
-      <c r="C133" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A134" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B134" t="s">
-        <v>135</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A135" s="3"/>
-      <c r="B135" t="s">
-        <v>164</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A136" s="3"/>
-      <c r="B136" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A137" s="3"/>
-      <c r="B137" t="s">
-        <v>119</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A138" s="3"/>
-      <c r="B138" t="s">
-        <v>118</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A139" s="3"/>
-      <c r="B139" t="s">
-        <v>117</v>
-      </c>
-      <c r="C139" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A140" s="3"/>
-      <c r="B140" t="s">
-        <v>66</v>
-      </c>
-      <c r="C140" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A141" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B141" t="s">
-        <v>142</v>
-      </c>
-      <c r="C141" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A142" s="5"/>
-      <c r="B142" t="s">
-        <v>142</v>
-      </c>
-      <c r="C142" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A143" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B143" t="s">
-        <v>139</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A144" s="5"/>
-      <c r="B144" t="s">
-        <v>138</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A145" s="5"/>
-      <c r="B145" t="s">
-        <v>137</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A146" s="5"/>
-      <c r="B146" t="s">
-        <v>137</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A147" s="5"/>
-      <c r="B147" t="s">
-        <v>136</v>
-      </c>
-      <c r="C147" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A148" s="5"/>
-      <c r="B148" t="s">
-        <v>72</v>
-      </c>
-      <c r="C148" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A149" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B149" t="s">
-        <v>74</v>
-      </c>
-      <c r="C149" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A150" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A151" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A152" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B152" t="s">
-        <v>203</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A153" s="3"/>
-      <c r="B153" t="s">
-        <v>202</v>
-      </c>
-      <c r="C153" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A154" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="B154" t="s">
-        <v>144</v>
-      </c>
-      <c r="C154" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A155" s="5"/>
-      <c r="B155" t="s">
-        <v>79</v>
-      </c>
-      <c r="C155" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A156" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B156" t="s">
-        <v>141</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A157" s="5"/>
-      <c r="B157" t="s">
-        <v>140</v>
-      </c>
-      <c r="C157" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A158" s="5"/>
-      <c r="B158" t="s">
-        <v>81</v>
-      </c>
-      <c r="C158" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A159" s="4" t="s">
+    <row r="226" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="B226" s="3"/>
+      <c r="C226" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A111:A114"/>
-    <mergeCell ref="A115:A116"/>
-    <mergeCell ref="A128:A131"/>
-    <mergeCell ref="A132:A133"/>
-    <mergeCell ref="A49:A53"/>
-    <mergeCell ref="A117:A118"/>
-    <mergeCell ref="A121:A122"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A61:A63"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="A43:A48"/>
-    <mergeCell ref="A4:A18"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="A134:A140"/>
-    <mergeCell ref="A33:A42"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A91:A102"/>
-    <mergeCell ref="A103:A110"/>
-    <mergeCell ref="A84:A90"/>
-    <mergeCell ref="A154:A155"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="A124:A127"/>
-    <mergeCell ref="A143:A148"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="A152:A153"/>
+    <mergeCell ref="A221:A222"/>
+    <mergeCell ref="A206:A207"/>
+    <mergeCell ref="A183:A187"/>
+    <mergeCell ref="A208:A215"/>
+    <mergeCell ref="A223:A225"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="A197:A205"/>
+    <mergeCell ref="A46:A66"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A133:A150"/>
+    <mergeCell ref="A151:A162"/>
+    <mergeCell ref="A122:A132"/>
+    <mergeCell ref="A103:A115"/>
+    <mergeCell ref="A194:A196"/>
+    <mergeCell ref="A76:A82"/>
+    <mergeCell ref="A176:A177"/>
+    <mergeCell ref="A180:A181"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A96:A100"/>
+    <mergeCell ref="A83:A88"/>
+    <mergeCell ref="A67:A75"/>
+    <mergeCell ref="A6:A28"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="A163:A172"/>
+    <mergeCell ref="A173:A175"/>
+    <mergeCell ref="A188:A193"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C39" r:id="rId1"/>
-    <hyperlink ref="C43" r:id="rId2"/>
-    <hyperlink ref="C55" r:id="rId3"/>
-    <hyperlink ref="C83" r:id="rId4"/>
-    <hyperlink ref="C103" r:id="rId5"/>
-    <hyperlink ref="C106" r:id="rId6"/>
-    <hyperlink ref="C139" r:id="rId7"/>
-    <hyperlink ref="C126" r:id="rId8"/>
-    <hyperlink ref="C76" r:id="rId9"/>
-    <hyperlink ref="B68" r:id="rId10" location="a12-transferproxy-keccak256" display="https://github.com/sec-bit/awesome-buggy-erc20-tokens/blob/master/ERC20_token_issue_list.md - a12-transferproxy-keccak256"/>
-    <hyperlink ref="C6" r:id="rId11"/>
-    <hyperlink ref="C7" r:id="rId12"/>
-    <hyperlink ref="C8" r:id="rId13"/>
-    <hyperlink ref="C9" r:id="rId14"/>
-    <hyperlink ref="C10" r:id="rId15"/>
-    <hyperlink ref="C11" r:id="rId16"/>
-    <hyperlink ref="C12" r:id="rId17"/>
-    <hyperlink ref="C14" r:id="rId18"/>
-    <hyperlink ref="C15" r:id="rId19"/>
-    <hyperlink ref="C33" r:id="rId20"/>
-    <hyperlink ref="C67" r:id="rId21"/>
-    <hyperlink ref="C68" r:id="rId22"/>
-    <hyperlink ref="C69" r:id="rId23"/>
-    <hyperlink ref="C70" r:id="rId24"/>
-    <hyperlink ref="C71" r:id="rId25"/>
-    <hyperlink ref="C72" r:id="rId26"/>
-    <hyperlink ref="C73" r:id="rId27"/>
-    <hyperlink ref="C74" r:id="rId28"/>
-    <hyperlink ref="C75" r:id="rId29"/>
-    <hyperlink ref="C134" r:id="rId30"/>
-    <hyperlink ref="C138" r:id="rId31"/>
-    <hyperlink ref="C137" r:id="rId32"/>
-    <hyperlink ref="C16" r:id="rId33"/>
-    <hyperlink ref="C29" r:id="rId34"/>
-    <hyperlink ref="C35" r:id="rId35"/>
-    <hyperlink ref="C36" r:id="rId36"/>
-    <hyperlink ref="C52" r:id="rId37"/>
-    <hyperlink ref="C62" r:id="rId38"/>
-    <hyperlink ref="C98" r:id="rId39"/>
-    <hyperlink ref="C105" r:id="rId40"/>
-    <hyperlink ref="C130" r:id="rId41"/>
-    <hyperlink ref="C135" r:id="rId42"/>
-    <hyperlink ref="C143" r:id="rId43"/>
-    <hyperlink ref="C146" r:id="rId44"/>
-    <hyperlink ref="C144" r:id="rId45"/>
-    <hyperlink ref="C156" r:id="rId46"/>
-    <hyperlink ref="C34" r:id="rId47"/>
-    <hyperlink ref="C45" r:id="rId48"/>
-    <hyperlink ref="C49" r:id="rId49"/>
-    <hyperlink ref="C56" r:id="rId50"/>
-    <hyperlink ref="C85" r:id="rId51"/>
-    <hyperlink ref="C87" r:id="rId52"/>
-    <hyperlink ref="C93" r:id="rId53"/>
-    <hyperlink ref="C104" r:id="rId54"/>
-    <hyperlink ref="C117" r:id="rId55"/>
-    <hyperlink ref="C121" r:id="rId56"/>
-    <hyperlink ref="C94" r:id="rId57"/>
-    <hyperlink ref="C152" r:id="rId58"/>
-    <hyperlink ref="C2" r:id="rId59"/>
-    <hyperlink ref="C17" r:id="rId60"/>
-    <hyperlink ref="C20" r:id="rId61"/>
-    <hyperlink ref="C24" r:id="rId62"/>
-    <hyperlink ref="C26" r:id="rId63"/>
-    <hyperlink ref="C37" r:id="rId64"/>
-    <hyperlink ref="C44" r:id="rId65"/>
-    <hyperlink ref="C50" r:id="rId66"/>
-    <hyperlink ref="C51" r:id="rId67"/>
-    <hyperlink ref="C59" r:id="rId68"/>
-    <hyperlink ref="C61" r:id="rId69"/>
-    <hyperlink ref="C65" r:id="rId70"/>
-    <hyperlink ref="C79" r:id="rId71"/>
-    <hyperlink ref="C81" r:id="rId72"/>
-    <hyperlink ref="C82" r:id="rId73"/>
-    <hyperlink ref="C92" r:id="rId74"/>
-    <hyperlink ref="C95" r:id="rId75"/>
-    <hyperlink ref="C97" r:id="rId76"/>
-    <hyperlink ref="C107" r:id="rId77"/>
-    <hyperlink ref="C108" r:id="rId78"/>
-    <hyperlink ref="C111" r:id="rId79"/>
-    <hyperlink ref="C115" r:id="rId80"/>
-    <hyperlink ref="C125" r:id="rId81"/>
-    <hyperlink ref="C128" r:id="rId82"/>
-    <hyperlink ref="C129" r:id="rId83"/>
-    <hyperlink ref="C132" r:id="rId84"/>
-    <hyperlink ref="C145" r:id="rId85"/>
-    <hyperlink ref="B136" r:id="rId86" display="https://smartcontractsecurity.github.io/SWC-registry/docs/SWC-118"/>
-    <hyperlink ref="C136" r:id="rId87"/>
-    <hyperlink ref="C5" r:id="rId88"/>
-    <hyperlink ref="B96" r:id="rId89" tooltip="Auction" display="https://github.com/ballesterosbr/contracts/tree/master/Auction"/>
-    <hyperlink ref="B86" r:id="rId90" tooltip="GasLimit" display="https://github.com/ballesterosbr/contracts/tree/master/GasLimit"/>
-    <hyperlink ref="B13" r:id="rId91" tooltip="Overflow_Underflow" display="https://github.com/ballesterosbr/contracts/tree/master/Overflow_Underflow"/>
-    <hyperlink ref="B38" r:id="rId92" tooltip="Reentrancy" display="https://github.com/ballesterosbr/contracts/tree/master/Reentrancy"/>
-    <hyperlink ref="C38" r:id="rId93"/>
-    <hyperlink ref="C13" r:id="rId94"/>
-    <hyperlink ref="C86" r:id="rId95"/>
-    <hyperlink ref="C96" r:id="rId96"/>
+    <hyperlink ref="C63" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C67" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C84" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C121" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C151" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C158" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C204" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C186" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C113" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B102" r:id="rId10" location="a12-transferproxy-keccak256" display="https://github.com/sec-bit/awesome-buggy-erc20-tokens/blob/master/ERC20_token_issue_list.md - a12-transferproxy-keccak256" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C8" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C9" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C12" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C20" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C46" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C101" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C102" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C104" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C105" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C106" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C109" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C110" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C111" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C112" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C197" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C203" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C202" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C26" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C42" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C50" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C51" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C81" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C93" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C146" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C154" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C192" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C198" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C208" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C213" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C209" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C223" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C47" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C72" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C76" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C86" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C123" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C129" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C135" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C152" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C176" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C180" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C136" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C219" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C2" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C27" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C30" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C34" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C37" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C56" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C71" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C77" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C80" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C89" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C91" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C96" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C116" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C118" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C119" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C134" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C141" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C145" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C159" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C160" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C163" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C173" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C184" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C188" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C189" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C194" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C212" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B199" r:id="rId86" display="https://smartcontractsecurity.github.io/SWC-registry/docs/SWC-118" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C199" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C7" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="B144" r:id="rId89" tooltip="Auction" display="https://github.com/ballesterosbr/contracts/tree/master/Auction" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B128" r:id="rId90" tooltip="GasLimit" display="https://github.com/ballesterosbr/contracts/tree/master/GasLimit" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B23" r:id="rId91" tooltip="Overflow_Underflow" display="https://github.com/ballesterosbr/contracts/tree/master/Overflow_Underflow" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B62" r:id="rId92" tooltip="Reentrancy" display="https://github.com/ballesterosbr/contracts/tree/master/Reentrancy" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C62" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C23" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C128" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C144" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B153" r:id="rId97" tooltip="Block Properties Dependence" display="https://github.com/Lianantech/ETH-Security/tree/master/Block Properties Dependence" xr:uid="{BF4D3B76-FB96-4EBA-A80C-A43DA76AE5B0}"/>
+    <hyperlink ref="B107" r:id="rId98" tooltip="Coding Conventions (including Fake Deposit)" display="https://github.com/Lianantech/ETH-Security/tree/master/Coding Conventions (including Fake Deposit)" xr:uid="{8DB3903D-6BDC-4B7C-9C26-D97DCAC24F87}"/>
+    <hyperlink ref="B120" r:id="rId99" tooltip="DoS" display="https://github.com/Lianantech/ETH-Security/tree/master/DoS" xr:uid="{2FA3BBE2-3A0F-42ED-921C-4A7F7C5B660C}"/>
+    <hyperlink ref="B124" r:id="rId100" tooltip="DoS" display="https://github.com/Lianantech/ETH-Security/tree/master/DoS" xr:uid="{E3CD586F-0991-4DB2-8929-740201B39905}"/>
+    <hyperlink ref="B139" r:id="rId101" tooltip="DoS" display="https://github.com/Lianantech/ETH-Security/tree/master/DoS" xr:uid="{065D6A37-F384-40BE-8211-C548E807A3FE}"/>
+    <hyperlink ref="B4" r:id="rId102" tooltip="Floating-point and precision issues" display="https://github.com/Lianantech/ETH-Security/tree/master/Floating-point and precision issues" xr:uid="{EF9E503D-E17A-45FF-B8B3-2B3E5DCBDC6E}"/>
+    <hyperlink ref="B11" r:id="rId103" tooltip="Integer OverflowsUnderflows" display="https://github.com/Lianantech/ETH-Security/tree/master/Integer OverflowsUnderflows" xr:uid="{3BE95068-F406-4922-8331-A0586EF2EDD0}"/>
+    <hyperlink ref="B191" r:id="rId104" tooltip="Misuse of tx.origin for authorization" display="https://github.com/Lianantech/ETH-Security/tree/master/Misuse of tx.origin for authorization" xr:uid="{E0ACF437-B60A-4174-AFFD-484E085370A1}"/>
+    <hyperlink ref="B169" r:id="rId105" tooltip="Race Condition" display="https://github.com/Lianantech/ETH-Security/tree/master/Race Condition" xr:uid="{39670DE7-D5CA-4C07-8B87-8CF4EBF199B2}"/>
+    <hyperlink ref="B164" r:id="rId106" tooltip="Risk of using approve" display="https://github.com/Lianantech/ETH-Security/tree/master/Risk of using approve" xr:uid="{D6E7469D-BFE0-42B7-924B-4079FCA8CE4F}"/>
+    <hyperlink ref="B41" r:id="rId107" tooltip="Uninitialized storage pointers" display="https://github.com/Lianantech/ETH-Security/tree/master/Uninitialized storage pointers" xr:uid="{1BD18B05-89E7-47DF-A2E3-9DF472EF6E51}"/>
+    <hyperlink ref="B210" r:id="rId108" tooltip="State Variables are public on chain" display="https://github.com/Lianantech/ETH-Security/tree/master/State Variables are public on chain" xr:uid="{FAD73AC6-C1B4-4A2D-A077-1E25C77EB9DE}"/>
+    <hyperlink ref="B201" r:id="rId109" tooltip="Security Risks caused during development" display="https://github.com/Lianantech/ETH-Security/tree/master/Security Risks caused during development" xr:uid="{450C5F62-3144-4F17-B50F-6BCD21CEA676}"/>
+    <hyperlink ref="B68" r:id="rId110" tooltip="Misuse of Low-level Function" display="https://github.com/Lianantech/ETH-Security/tree/master/Misuse of Low-level Function" xr:uid="{CAA330BD-4773-4BDF-9DF4-5AB0422D43E8}"/>
+    <hyperlink ref="B61" r:id="rId111" tooltip="Ether Transactions risks" display="https://github.com/Lianantech/ETH-Security/tree/master/Ether Transactions risks" xr:uid="{6EA73316-FBC2-4095-926D-68FDCA462525}"/>
+    <hyperlink ref="C4" r:id="rId112" xr:uid="{BE853D7F-602A-448B-8444-DB1C4287C66E}"/>
+    <hyperlink ref="C11" r:id="rId113" xr:uid="{18816352-52AC-4927-88E3-748AFFBA2A73}"/>
+    <hyperlink ref="C41" r:id="rId114" xr:uid="{0B35A52E-C845-4BD5-8E20-C620CC57C9CE}"/>
+    <hyperlink ref="C39" r:id="rId115" xr:uid="{71295A37-B187-4134-8462-7F7CA649DA5E}"/>
+    <hyperlink ref="C61" r:id="rId116" xr:uid="{B6B2EB0D-9721-4F3B-942A-8FAF98E31156}"/>
+    <hyperlink ref="C68" r:id="rId117" xr:uid="{097B30CF-6A08-4390-95EC-C7EDCEB18A64}"/>
+    <hyperlink ref="C107" r:id="rId118" xr:uid="{3358C9B8-274C-46E0-83D3-375B032D94AD}"/>
+    <hyperlink ref="C120" r:id="rId119" xr:uid="{BC641D82-B74F-4A31-87CE-6735A2D9D773}"/>
+    <hyperlink ref="C124" r:id="rId120" xr:uid="{8A28C9DB-E284-4D1E-8844-A9BCF38AA5A0}"/>
+    <hyperlink ref="C139" r:id="rId121" xr:uid="{974205A1-5396-4B2F-9CCE-F2A57B4D0F4B}"/>
+    <hyperlink ref="C153" r:id="rId122" xr:uid="{BD1354DA-E447-42FE-8E1B-2466E53CA9B6}"/>
+    <hyperlink ref="C169" r:id="rId123" xr:uid="{9769D23A-468E-4760-BFB1-B98F2B634283}"/>
+    <hyperlink ref="C164" r:id="rId124" xr:uid="{42623327-8EDD-4C9B-BE3E-2C689795CA08}"/>
+    <hyperlink ref="C191" r:id="rId125" xr:uid="{84933E25-0290-4AC7-B59A-30D2B50D2D2F}"/>
+    <hyperlink ref="C201" r:id="rId126" xr:uid="{7D51638F-1F03-49A7-A075-84A04C2CFE2D}"/>
+    <hyperlink ref="C210" r:id="rId127" xr:uid="{C39008FB-02C5-48AF-BE12-B17CAA869847}"/>
+    <hyperlink ref="B142" r:id="rId128" tooltip="Unitialized Library" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Unitialized Library" xr:uid="{25DDBF4A-AE37-46C3-AD92-70D4553E876C}"/>
+    <hyperlink ref="B190" r:id="rId129" tooltip="Tx.origin Authentication" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Tx.origin Authentication" xr:uid="{E68CC045-44F7-402F-92E2-CE169BFECB59}"/>
+    <hyperlink ref="B99" r:id="rId130" tooltip="Short Address Attack" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Short Address Attack" xr:uid="{67637E28-05AA-42CD-B40C-E2B185F9D5EF}"/>
+    <hyperlink ref="B54" r:id="rId131" tooltip="Reentrancy" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Reentrancy" xr:uid="{6A0E555B-4EE3-45D8-A01E-209CFC6C50E5}"/>
+    <hyperlink ref="B43" r:id="rId132" tooltip="RTLO Character" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/RTLO Character" xr:uid="{544AEC55-A850-4D02-8B9F-3A2A69A07ACD}"/>
+    <hyperlink ref="B211" r:id="rId133" tooltip="Public Secrecy" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Public Secrecy" xr:uid="{82CFCE92-1DCD-406A-9C30-45774BF41EA0}"/>
+    <hyperlink ref="B40" r:id="rId134" tooltip="Storage Variables to Memory" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Storage Variables to Memory" xr:uid="{BACD8456-C1DD-4D68-97EC-54ED7E94FF84}"/>
+    <hyperlink ref="B174" r:id="rId135" tooltip="Overwriting Arbitrary Storage Variables" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Overwriting Arbitrary Storage Variables" xr:uid="{414DF84C-B6AA-4661-A560-ED8E856039C2}"/>
+    <hyperlink ref="B92" r:id="rId136" tooltip="Overwriting Arbitrary Storage Variables" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Overwriting Arbitrary Storage Variables" xr:uid="{9F7AB579-D3E8-4148-A075-69434D315B50}"/>
+    <hyperlink ref="B13" r:id="rId137" tooltip="Integer Overflow and Underflow" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Integer Overflow and Underflow" xr:uid="{25584286-7973-434F-B901-8D84826D7BBC}"/>
+    <hyperlink ref="B59" r:id="rId138" tooltip="Front Running" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Front Running" xr:uid="{002DFB0A-FB6D-4E53-B80E-BC9C3C38F714}"/>
+    <hyperlink ref="B79" r:id="rId139" tooltip="Forcing Ether" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Forcing Ether" xr:uid="{9FB1BB18-33F1-47E5-92B0-2EA88729ABE4}"/>
+    <hyperlink ref="B3" r:id="rId140" tooltip="Floating Points" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Floating Points" xr:uid="{7BF374B9-308A-4368-BA4C-B89F1B75F031}"/>
+    <hyperlink ref="B143" r:id="rId141" tooltip="External Referencing" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/External Referencing" xr:uid="{4A04F0EF-0F95-4B25-8CB8-0E13EBBA1877}"/>
+    <hyperlink ref="B127" r:id="rId142" tooltip="Exceeding Block Gas Limit" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Exceeding Block Gas Limit" xr:uid="{F6CE739D-758C-4348-B4D4-4507E0FB95D2}"/>
+    <hyperlink ref="B140" r:id="rId143" tooltip="Denial of Service" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Denial of Service" xr:uid="{7CE2D6FF-4DAD-48A4-8094-F6174E174763}"/>
+    <hyperlink ref="C3" r:id="rId144" xr:uid="{12F8481C-077C-4499-8B36-421740771B87}"/>
+    <hyperlink ref="C13" r:id="rId145" xr:uid="{63BF0B76-E84C-4A93-B1B0-EB90D4D9DF6D}"/>
+    <hyperlink ref="C40" r:id="rId146" xr:uid="{36943CDD-B989-47F5-8842-C69E77CCD884}"/>
+    <hyperlink ref="C43" r:id="rId147" xr:uid="{E864A4DE-63E1-49F4-AD0E-953958A7BBD6}"/>
+    <hyperlink ref="C54" r:id="rId148" xr:uid="{FD123E44-00B6-4B1D-B591-161BA76D775D}"/>
+    <hyperlink ref="C59" r:id="rId149" xr:uid="{66AA856F-76D5-4507-AC19-2E522809145E}"/>
+    <hyperlink ref="C79" r:id="rId150" xr:uid="{2705C4B1-2106-48EF-B869-69733478D36D}"/>
+    <hyperlink ref="C92" r:id="rId151" xr:uid="{0B048E0B-60B6-42F9-B0C0-0E049F660D51}"/>
+    <hyperlink ref="C99" r:id="rId152" xr:uid="{CFF1F393-A500-4661-9558-C3F8CF4B4992}"/>
+    <hyperlink ref="C127" r:id="rId153" xr:uid="{0B6F2E3E-3075-4ED7-AD97-DEB27D6540AC}"/>
+    <hyperlink ref="C140" r:id="rId154" xr:uid="{B4D9C2C7-D909-4981-ABAB-F74581AB63B2}"/>
+    <hyperlink ref="C142" r:id="rId155" xr:uid="{C7C305D6-9B01-4664-9265-21329E1CA6AC}"/>
+    <hyperlink ref="C143" r:id="rId156" xr:uid="{129AB40C-AC7B-4D88-8689-0F47D588DBAF}"/>
+    <hyperlink ref="C174" r:id="rId157" xr:uid="{D77A0914-A721-4996-A97C-5C009C45E41C}"/>
+    <hyperlink ref="C190" r:id="rId158" xr:uid="{842349C2-54BC-4ED5-8A93-40D95D931BD7}"/>
+    <hyperlink ref="C211" r:id="rId159" xr:uid="{D71D999C-A5B0-4CFC-8B90-37EC1EF033A6}"/>
+    <hyperlink ref="B157" r:id="rId160" tooltip="This path skips through empty directories" display="https://github.com/mahyarx/Smart-Contract-Vulnerabilities/tree/master/bad_randomness/theRun_source_code" xr:uid="{11C41238-7E48-488D-8E77-7A72E607C95D}"/>
+    <hyperlink ref="B137" r:id="rId161" tooltip="denial_of_service" display="https://github.com/mahyarx/Smart-Contract-Vulnerabilities/tree/master/denial_of_service" xr:uid="{37E93AF9-6FDC-4F61-AB8C-915785B3ADED}"/>
+    <hyperlink ref="B78" r:id="rId162" tooltip="forced_ether_reception" display="https://github.com/mahyarx/Smart-Contract-Vulnerabilities/tree/master/forced_ether_reception" xr:uid="{20CE23C6-B0B4-4852-9184-CE372AE5751C}"/>
+    <hyperlink ref="B108" r:id="rId163" tooltip="incorrect_interface" display="https://github.com/mahyarx/Smart-Contract-Vulnerabilities/tree/master/incorrect_interface" xr:uid="{FE037E45-1A25-4F4D-B10F-9D8FB5EC0D1C}"/>
+    <hyperlink ref="C103" r:id="rId164" xr:uid="{492B9DFB-28E2-4F09-97FC-EA2EE9F8FC65}"/>
+    <hyperlink ref="B19" r:id="rId165" tooltip="integer_overflow" display="https://github.com/mahyarx/Smart-Contract-Vulnerabilities/tree/master/integer_overflow" xr:uid="{42089201-559F-4AA2-AA30-5EFE9C408D4D}"/>
+    <hyperlink ref="B168" r:id="rId166" tooltip="race_condition" display="https://github.com/mahyarx/Smart-Contract-Vulnerabilities/tree/master/race_condition" xr:uid="{95FCFF87-BCB0-442A-BABF-FDFAAAEBFB77}"/>
+    <hyperlink ref="B55" r:id="rId167" tooltip="reentrancy" display="https://github.com/mahyarx/Smart-Contract-Vulnerabilities/tree/master/reentrancy" xr:uid="{564E3339-E5CC-4DA9-BA4E-5414A0F3A1A6}"/>
+    <hyperlink ref="B69" r:id="rId168" tooltip="This path skips through empty directories" display="https://github.com/mahyarx/Smart-Contract-Vulnerabilities/tree/master/unchecked_external_call/KotET_source_code" xr:uid="{4103282A-E27F-4635-BDAB-73A5B0D85091}"/>
+    <hyperlink ref="B185" r:id="rId169" tooltip="unprotected_function" display="https://github.com/mahyarx/Smart-Contract-Vulnerabilities/tree/master/unprotected_function" xr:uid="{8AB74012-EC99-4FFE-97B7-6EF280BAB959}"/>
+    <hyperlink ref="B35" r:id="rId170" tooltip="variable shadowing" display="https://github.com/mahyarx/Smart-Contract-Vulnerabilities/tree/master/variable shadowing" xr:uid="{279A5D59-44B6-4135-B2B7-11FB775BC875}"/>
+    <hyperlink ref="B200" r:id="rId171" tooltip="wrong_constructor_name" display="https://github.com/mahyarx/Smart-Contract-Vulnerabilities/tree/master/wrong_constructor_name" xr:uid="{07920008-80C8-4F0A-812E-82D73ABF16D4}"/>
+    <hyperlink ref="C19" r:id="rId172" xr:uid="{F015425D-D4FA-43A7-888C-66F39C7389B6}"/>
+    <hyperlink ref="C35" r:id="rId173" xr:uid="{3907D4B8-5BF8-4CEB-94E9-A5E21BB4EA0F}"/>
+    <hyperlink ref="C55" r:id="rId174" xr:uid="{C394B085-10F4-4E0F-9ABA-FF3155F8A5CB}"/>
+    <hyperlink ref="C69" r:id="rId175" xr:uid="{8F3474F2-99AE-4A77-AE39-0596D2A44B48}"/>
+    <hyperlink ref="C78" r:id="rId176" xr:uid="{92B24A0C-4125-4842-AF19-7E98E9368695}"/>
+    <hyperlink ref="C108" r:id="rId177" xr:uid="{3F94EFD0-76C9-4258-87F5-75AC9911D399}"/>
+    <hyperlink ref="C137" r:id="rId178" xr:uid="{2871E5DE-B5F0-4433-B28B-9D8A9AE7D489}"/>
+    <hyperlink ref="C157" r:id="rId179" xr:uid="{BFBC5CFF-0F5F-49B5-85B5-677B6FA6E49F}"/>
+    <hyperlink ref="C168" r:id="rId180" xr:uid="{BB7574CF-5258-4DC9-BCB5-BF11496F88BB}"/>
+    <hyperlink ref="C185" r:id="rId181" xr:uid="{05978E36-3A83-462A-AC8C-5B81C3DB437A}"/>
+    <hyperlink ref="C200" r:id="rId182" xr:uid="{C4F3C180-6E2D-4FE5-BD2F-45A74B7B318F}"/>
+    <hyperlink ref="B156" r:id="rId183" tooltip="bad-randomness.sol" display="https://github.com/TEAM-C4B/Smart-Contract-Vuln-Mitigation/blob/master/bad-randomness.sol" xr:uid="{785E4887-BAB8-4F16-BFC1-D7665ABB1BA6}"/>
+    <hyperlink ref="B16" r:id="rId184" tooltip="integer-overflow.sol" display="https://github.com/TEAM-C4B/Smart-Contract-Vuln-Mitigation/blob/master/integer-overflow.sol" xr:uid="{A53F9E20-AC26-4FD8-8E30-01ABF071E842}"/>
+    <hyperlink ref="B58" r:id="rId185" tooltip="re-entrancy.sol" display="https://github.com/TEAM-C4B/Smart-Contract-Vuln-Mitigation/blob/master/re-entrancy.sol" xr:uid="{39A88453-2E2B-423E-918A-DBA5AA1320ED}"/>
+    <hyperlink ref="B98" r:id="rId186" tooltip="short-address-attack.sol" display="https://github.com/TEAM-C4B/Smart-Contract-Vuln-Mitigation/blob/master/short-address-attack.sol" xr:uid="{F4DD7E18-2D63-4DA5-BB9C-112C0AFDBADA}"/>
+    <hyperlink ref="C98" r:id="rId187" xr:uid="{1267BD7C-0175-4FC8-BF70-CFCE5A846D1A}"/>
+    <hyperlink ref="C16" r:id="rId188" xr:uid="{55D6530A-4A74-4A01-B914-438A7E7F2FC9}"/>
+    <hyperlink ref="C156" r:id="rId189" xr:uid="{218A5A79-A87E-4A6C-BC94-909E8DAD9F73}"/>
+    <hyperlink ref="B14" r:id="rId190" tooltip="integer-overflow.sol" display="https://github.com/tr0y-kim/Smart-Contract-Vuln-Mitigation/blob/master/integer-overflow.sol" xr:uid="{E5670DFA-131B-45CA-B348-E3D2DAC6EE64}"/>
+    <hyperlink ref="B97" r:id="rId191" tooltip="short-address-attack.sol" display="https://github.com/tr0y-kim/Smart-Contract-Vuln-Mitigation/blob/master/short-address-attack.sol" xr:uid="{3FF6B160-3AB5-4A92-AFAB-AB361A5327A8}"/>
+    <hyperlink ref="C97" r:id="rId192" xr:uid="{8EEC4DDD-37AC-4B6F-8F71-1ECFEADAA5A7}"/>
+    <hyperlink ref="C14" r:id="rId193" xr:uid="{6E77B265-BB26-4847-BEDC-75FB39297900}"/>
+    <hyperlink ref="C60" r:id="rId194" xr:uid="{87D2C14A-F2E1-4776-9131-71877BB1309C}"/>
+    <hyperlink ref="C52" r:id="rId195" xr:uid="{DE7DC625-734A-4CC5-88CF-A608B299BF75}"/>
+    <hyperlink ref="B57" r:id="rId196" tooltip="reentrancy" display="https://github.com/Messi-Q/GGNNSmartVulDetector/tree/master/train_data/reentrancy" xr:uid="{035AF8A3-9224-4DF8-A32D-E2570A530A2C}"/>
+    <hyperlink ref="B125" r:id="rId197" tooltip="infinite_loop" display="https://github.com/Messi-Q/GGNNSmartVulDetector/tree/master/train_data/infinite_loop" xr:uid="{5B997715-1E0C-4AC3-BFD7-019014DCF2B1}"/>
+    <hyperlink ref="C125" r:id="rId198" xr:uid="{99450AFC-108B-4469-B128-B88334572750}"/>
+    <hyperlink ref="C57" r:id="rId199" xr:uid="{B41809F9-EC13-4DC1-9923-B8F3F7160F66}"/>
+    <hyperlink ref="C58" r:id="rId200" xr:uid="{B032FE9C-13CC-472E-BC5E-C33B418E4A90}"/>
+    <hyperlink ref="B10" r:id="rId201" tooltip="Bank.sol" display="https://github.com/Ceesvanwijk/vulnerable-bank/blob/master/Bank.sol" xr:uid="{909FC484-1899-485F-8117-50540208D1C5}"/>
+    <hyperlink ref="C10" r:id="rId202" xr:uid="{16933653-3CC8-41E9-A22E-A43311F756DC}"/>
+    <hyperlink ref="C53" r:id="rId203" xr:uid="{A3FB70CB-F9DD-4B69-BC85-18D143C4DF52}"/>
+    <hyperlink ref="C17" r:id="rId204" xr:uid="{24489BD9-B6CD-45CA-87D3-88738AB04641}"/>
+    <hyperlink ref="C15" r:id="rId205" xr:uid="{AC1669AA-DBB7-4E8D-8AC6-3C2FDE409D88}"/>
+    <hyperlink ref="C126" r:id="rId206" xr:uid="{161553AE-8BEF-44C6-A185-B53E0CBECFFD}"/>
+    <hyperlink ref="C138" r:id="rId207" xr:uid="{D64009EA-4DB7-4026-B149-A34E31E7DB6F}"/>
+    <hyperlink ref="C155" r:id="rId208" xr:uid="{A94DB12C-4D00-406D-834C-27CCDAD9ED5D}"/>
+    <hyperlink ref="C165" r:id="rId209" xr:uid="{CE9AAC93-4509-4AAA-BE04-059555D3F6D0}"/>
+    <hyperlink ref="C166" r:id="rId210" xr:uid="{75416904-14A3-47D4-88FC-9A563DF96D4C}"/>
+    <hyperlink ref="C49" r:id="rId211" xr:uid="{1752A754-B6B3-414A-BCE6-5F48839B21A5}"/>
+    <hyperlink ref="C48" r:id="rId212" xr:uid="{52BFA615-188C-46B5-94E6-7BA4490706D3}"/>
+    <hyperlink ref="C70" r:id="rId213" xr:uid="{771E8A58-7F98-46BC-850E-E210CA4CF512}"/>
+    <hyperlink ref="C85" r:id="rId214" xr:uid="{D6A5F07F-6744-4CA8-A9E0-E3563A0169C5}"/>
+    <hyperlink ref="C167" r:id="rId215" xr:uid="{3C08DF47-94FC-41C4-BD7A-A0C7213B7B65}"/>
+    <hyperlink ref="C195" r:id="rId216" xr:uid="{E2B5C3F8-FD1B-4BA3-9411-40C41E67DD3C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId97"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId217"/>
 </worksheet>
 </file>
--- a/Correspondence.xlsx
+++ b/Correspondence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XF\Desktop\JiuZhou_copy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56BF2D7-27BF-498A-9E22-4F7AFDB97A0B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0357F337-5DEB-4B6E-8153-C1C537F287F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="18220" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="391">
   <si>
     <t>Current Name</t>
   </si>
@@ -1114,12 +1114,470 @@
       <t>跨函数竞态</t>
     </r>
   </si>
+  <si>
+    <t>Function Default Visibility</t>
+  </si>
+  <si>
+    <t>Floating Pragma</t>
+  </si>
+  <si>
+    <t>unchecked call return value</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unprotected Ether Withdrawal</t>
+  </si>
+  <si>
+    <t>Unprotected SELFDESTRUCT Instruction</t>
+  </si>
+  <si>
+    <t>Reentrancy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>State Variable Default Visibility</t>
+  </si>
+  <si>
+    <t>Assert Violation</t>
+  </si>
+  <si>
+    <t>Use of Deprecated Solidity Functions</t>
+  </si>
+  <si>
+    <t>Delegatecall to Untrusted Callee</t>
+  </si>
+  <si>
+    <t>Dos with failed call</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transaction Order Dependence</t>
+  </si>
+  <si>
+    <t>Authorization through tx.origin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timestamp Dependence</t>
+  </si>
+  <si>
+    <t>Signature Malleability</t>
+  </si>
+  <si>
+    <t>Incorrect Constructor Name</t>
+  </si>
+  <si>
+    <t>Shadowing state variables</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weak Sources of Randomness from Chain Attributes</t>
+  </si>
+  <si>
+    <t>Missing Protection against Signature Replay Attacks</t>
+  </si>
+  <si>
+    <t>Requirement Violation</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Write to Arbitrary Storage Location</t>
+  </si>
+  <si>
+    <t>Insufficient Gas Griefing</t>
+  </si>
+  <si>
+    <t>DoS With Block Gas Limit</t>
+  </si>
+  <si>
+    <t>Typographical Error</t>
+  </si>
+  <si>
+    <t>Right-To-Left-Override control character (U+202E)</t>
+  </si>
+  <si>
+    <t>unecpected Ether balance</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://swcregistry.io/</t>
+  </si>
+  <si>
+    <t>Guess the secret number</t>
+  </si>
+  <si>
+    <t>Guess the random number</t>
+  </si>
+  <si>
+    <t>Token sale</t>
+  </si>
+  <si>
+    <t>Token whale</t>
+  </si>
+  <si>
+    <t>Mapping</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Donation</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assume ownership</t>
+  </si>
+  <si>
+    <t>https://capturetheether.com/challenges/</t>
+  </si>
+  <si>
+    <t>Default Visibility</t>
+  </si>
+  <si>
+    <t>Deprecated Constructs</t>
+  </si>
+  <si>
+    <t>Denial-of-Service with Block Gas Limit</t>
+  </si>
+  <si>
+    <t>External Contract Interactions</t>
+  </si>
+  <si>
+    <t>Exceptions</t>
+  </si>
+  <si>
+    <t>Uninitialised Storage Pointers</t>
+  </si>
+  <si>
+    <t>https://github.com/rajeevgopalakrishna/Solstice</t>
+  </si>
+  <si>
+    <t>https://github.com/doingblock/smart-contract-security/tree/master/eth</t>
+  </si>
+  <si>
+    <t>https://github.com/NoneAge/ETH_SmartContract_Security_Analysis</t>
+  </si>
+  <si>
+    <t>Cross function race condition</t>
+  </si>
+  <si>
+    <t>Function which calls untrusted fucntions are also untrusted</t>
+  </si>
+  <si>
+    <t>Front runnning/ Transaction order dependence</t>
+  </si>
+  <si>
+    <t>https://github.com/NEO2756/Smart-Contracts-Security-Guidelines/blob/master/Security-Guide-lines.sol</t>
+  </si>
+  <si>
+    <t>ReEntrancy.sol</t>
+  </si>
+  <si>
+    <t>https://github.com/gorbunovperm/blockgeeks_security</t>
+  </si>
+  <si>
+    <t>unintended transfer of ETH by CALL instruction</t>
+  </si>
+  <si>
+    <t>unintended transfer of ETH via arbitrary code execution by both instructions of CALLCODE and DELEGATECALL</t>
+  </si>
+  <si>
+    <t>unintended transfer of ETH by SELFDESTRUCT instruction</t>
+  </si>
+  <si>
+    <t>https://github.com/AsaiKen/tagomori</t>
+  </si>
+  <si>
+    <t>Re-entrancy</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer overflow</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/abs/10.1145/2976749.2978309</t>
+  </si>
+  <si>
+    <t>rtlo</t>
+  </si>
+  <si>
+    <t>shadowing-state</t>
+  </si>
+  <si>
+    <t>suicidal</t>
+  </si>
+  <si>
+    <t>uninitialized-state</t>
+  </si>
+  <si>
+    <t>uninitialized-storage</t>
+  </si>
+  <si>
+    <t>arbitrary-send</t>
+  </si>
+  <si>
+    <t>controlled-delegatecall</t>
+  </si>
+  <si>
+    <t>reentrancy-eth</t>
+  </si>
+  <si>
+    <t>erc20-interface</t>
+  </si>
+  <si>
+    <t>erc721-interface</t>
+  </si>
+  <si>
+    <t>incorrect-equality</t>
+  </si>
+  <si>
+    <t>locked-ether</t>
+  </si>
+  <si>
+    <t>shadowing-abstract</t>
+  </si>
+  <si>
+    <t>constant-function-asm</t>
+  </si>
+  <si>
+    <t>constant-function-state</t>
+  </si>
+  <si>
+    <t>reentrancy-no-eth</t>
+  </si>
+  <si>
+    <t>tx-origin</t>
+  </si>
+  <si>
+    <t>unchecked-lowlevel</t>
+  </si>
+  <si>
+    <t>unchecked-send</t>
+  </si>
+  <si>
+    <t>uninitialized-local</t>
+  </si>
+  <si>
+    <t>shadowing-builtin</t>
+  </si>
+  <si>
+    <t>calls-loop</t>
+  </si>
+  <si>
+    <t>reentrancy-benign</t>
+  </si>
+  <si>
+    <t>reentrancy-events</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>deprecated-standards</t>
+  </si>
+  <si>
+    <t>erc20-indexed</t>
+  </si>
+  <si>
+    <t>low-level-calls</t>
+  </si>
+  <si>
+    <t>naming-convention</t>
+  </si>
+  <si>
+    <t>reentrancy-unlimited-gas</t>
+  </si>
+  <si>
+    <t>too-many-digits</t>
+  </si>
+  <si>
+    <t>constable-states</t>
+  </si>
+  <si>
+    <t>external-function</t>
+  </si>
+  <si>
+    <t>https://github.com/crytic/slither/wiki/Detector-Documentation</t>
+  </si>
+  <si>
+    <t>https://github.com/crytic/slither/wiki/Detector-Documentation</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pragma</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>整数溢出漏洞</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>算术计算</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>未经检查的底层调用</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Unchecked </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>call</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>短地址攻击</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>拒绝服务</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Denial-of-Service with Unexpected </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>revert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t> in Loop</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Denial-of-Service with Unexpected </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>revert</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>时间操控</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>错误的随机性</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>超前运行</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Unchecked </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>selfdestruct</t>
+    </r>
+  </si>
+  <si>
+    <t>http://remix.ethereum.org/</t>
+  </si>
+  <si>
+    <t>Delete from dynamic Array: Using delete on an array leaves a gap</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1299,6 +1757,26 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1482,7 +1960,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1594,6 +2072,15 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFEAECEF"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1733,26 +2220,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2110,2368 +2597,3403 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C226"/>
+  <dimension ref="A1:C323"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" zoomScale="88" workbookViewId="0">
-      <selection activeCell="A133" sqref="A133:A150"/>
+    <sheetView tabSelected="1" topLeftCell="B55" zoomScale="88" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="84.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="121.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="107.9140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.6640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" s="7" customFormat="1" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="3" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="2"/>
+      <c r="B11" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="2"/>
+      <c r="B12" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5" t="s">
+    <row r="15" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7" t="s">
+    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="21.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="B19" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A22" s="2"/>
+      <c r="B22" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="5" t="s">
+    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="3" t="s">
+    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A24" s="2"/>
+      <c r="B24" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7" t="s">
+    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A25" s="2"/>
+      <c r="B25" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="5" t="s">
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7" t="s">
+    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7" t="s">
+    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
+      <c r="B28" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7" t="s">
+    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A29" s="2"/>
+      <c r="B29" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A23" s="6"/>
-      <c r="B23" s="5" t="s">
+    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A30" s="2"/>
+      <c r="B30" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7" t="s">
+    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A31" s="2"/>
+      <c r="B31" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7" t="s">
+    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A32" s="2"/>
+      <c r="B32" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7" t="s">
+    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A33" s="2"/>
+      <c r="B33" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7" t="s">
+    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A34" s="2"/>
+      <c r="B34" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C34" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="3" t="s">
+    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C35" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B36" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C36" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="18" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
+      <c r="B43" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A45" s="2"/>
+      <c r="B45" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B46" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+      <c r="B47" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A48" s="2"/>
+      <c r="B48" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
+    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
+      <c r="B49" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A50" s="2"/>
+      <c r="B50" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B51" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5" t="s">
+    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A52" s="2"/>
+      <c r="B52" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C52" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5" t="s">
+    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A53" s="2"/>
+      <c r="B53" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
+      <c r="B54" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="3" t="s">
+    <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A55" s="2"/>
+      <c r="B55" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A56" s="2"/>
+      <c r="B56" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A57" s="2"/>
+      <c r="B57" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C57" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
+    <row r="58" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B58" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A59" s="2"/>
+      <c r="B59" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A60" s="2"/>
+      <c r="B60" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C60" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
+    <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+      <c r="B61" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B62" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C62" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+    <row r="63" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B63" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C63" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="3" t="s">
+    <row r="64" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A64" s="2"/>
+      <c r="B64" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C64" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
-      <c r="B48" s="7" t="s">
+    <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A65" s="2"/>
+      <c r="B65" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A66" s="2"/>
+      <c r="B66" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A67" s="2"/>
+      <c r="B67" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A68" s="2"/>
+      <c r="B68" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A69" s="2"/>
+      <c r="B69" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A70" s="2"/>
+      <c r="B70" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A71" s="2"/>
+      <c r="B71" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A72" s="2"/>
+      <c r="B72" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C72" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
-      <c r="B49" s="3" t="s">
+    <row r="73" spans="1:3" ht="21.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="2"/>
+      <c r="B73" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A74" s="2"/>
+      <c r="B74" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C74" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A50" s="4"/>
-      <c r="B50" s="3" t="s">
+    <row r="75" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A75" s="2"/>
+      <c r="B75" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A76" s="2"/>
+      <c r="B76" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C76" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
-      <c r="B51" s="3" t="s">
+    <row r="77" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A77" s="2"/>
+      <c r="B77" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A78" s="2"/>
+      <c r="B78" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C78" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A52" s="4"/>
-      <c r="B52" s="3" t="s">
+    <row r="79" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A79" s="2"/>
+      <c r="B79" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A80" s="2"/>
+      <c r="B80" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A81" s="2"/>
+      <c r="B81" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C81" s="4" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A53" s="4"/>
-      <c r="B53" s="3" t="s">
+    <row r="82" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A82" s="2"/>
+      <c r="B82" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C82" s="4" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A54" s="4"/>
-      <c r="B54" s="5" t="s">
+    <row r="83" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A83" s="2"/>
+      <c r="B83" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C83" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A55" s="4"/>
-      <c r="B55" s="5" t="s">
+    <row r="84" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A84" s="2"/>
+      <c r="B84" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C84" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A56" s="4"/>
-      <c r="B56" s="3" t="s">
+    <row r="85" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A85" s="2"/>
+      <c r="B85" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C85" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A57" s="4"/>
-      <c r="B57" s="5" t="s">
+    <row r="86" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A86" s="2"/>
+      <c r="B86" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C86" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A58" s="4"/>
-      <c r="B58" s="5" t="s">
+    <row r="87" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A87" s="2"/>
+      <c r="B87" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C87" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A59" s="4"/>
-      <c r="B59" s="5" t="s">
+    <row r="88" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A88" s="2"/>
+      <c r="B88" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C88" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A60" s="4"/>
-      <c r="B60" s="3" t="s">
+    <row r="89" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A89" s="2"/>
+      <c r="B89" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C89" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A61" s="4"/>
-      <c r="B61" s="5" t="s">
+    <row r="90" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A90" s="2"/>
+      <c r="B90" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C90" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A62" s="4"/>
-      <c r="B62" s="5" t="s">
+    <row r="91" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A91" s="2"/>
+      <c r="B91" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C91" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A63" s="4"/>
-      <c r="B63" s="3" t="s">
+    <row r="92" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A92" s="2"/>
+      <c r="B92" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C92" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A64" s="4"/>
-      <c r="B64" s="3" t="s">
+    <row r="93" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A93" s="2"/>
+      <c r="B93" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C93" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A65" s="4"/>
-      <c r="B65" s="3" t="s">
+    <row r="94" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A94" s="2"/>
+      <c r="B94" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C94" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A66" s="4"/>
-      <c r="B66" s="3" t="s">
+    <row r="95" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A95" s="2"/>
+      <c r="B95" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C95" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
+    <row r="96" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B96" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A68" s="6"/>
-      <c r="B68" s="5" t="s">
+    <row r="97" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A97" s="2"/>
+      <c r="B97" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A98" s="2"/>
+      <c r="B98" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C98" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A69" s="6"/>
-      <c r="B69" s="5" t="s">
+    <row r="99" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A99" s="2"/>
+      <c r="B99" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="21.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="2"/>
+      <c r="B100" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A101" s="2"/>
+      <c r="B101" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A102" s="2"/>
+      <c r="B102" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A103" s="2"/>
+      <c r="B103" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C103" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A104" s="2"/>
+      <c r="B104" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A105" s="2"/>
+      <c r="B105" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A106" s="2"/>
+      <c r="B106" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C106" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A70" s="6"/>
-      <c r="B70" s="3" t="s">
+    <row r="107" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A107" s="2"/>
+      <c r="B107" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C107" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A71" s="6"/>
-      <c r="B71" s="3" t="s">
+    <row r="108" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A108" s="2"/>
+      <c r="B108" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C108" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A72" s="6"/>
-      <c r="B72" s="3" t="s">
+    <row r="109" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A109" s="2"/>
+      <c r="B109" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C109" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A73" s="6"/>
-      <c r="B73" s="3" t="s">
+    <row r="110" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A110" s="2"/>
+      <c r="B110" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C110" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A74" s="6"/>
-      <c r="B74" s="3" t="s">
+    <row r="111" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A111" s="2"/>
+      <c r="B111" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C111" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A75" s="6"/>
-      <c r="B75" s="3" t="s">
+    <row r="112" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A112" s="2"/>
+      <c r="B112" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C112" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A76" s="6" t="s">
+    <row r="113" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B113" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C113" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A77" s="6"/>
-      <c r="B77" s="3" t="s">
+    <row r="114" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A114" s="2"/>
+      <c r="B114" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C114" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A78" s="6"/>
-      <c r="B78" s="5" t="s">
+    <row r="115" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A115" s="2"/>
+      <c r="B115" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C115" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A79" s="6"/>
-      <c r="B79" s="5" t="s">
+    <row r="116" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A116" s="2"/>
+      <c r="B116" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A117" s="2"/>
+      <c r="B117" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A118" s="2"/>
+      <c r="B118" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A119" s="2"/>
+      <c r="B119" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C119" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A80" s="6"/>
-      <c r="B80" s="3" t="s">
+    <row r="120" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A120" s="2"/>
+      <c r="B120" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C120" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A81" s="6"/>
-      <c r="B81" s="3" t="s">
+    <row r="121" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A121" s="2"/>
+      <c r="B121" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C121" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A82" s="6"/>
-      <c r="B82" s="3" t="s">
+    <row r="122" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A122" s="2"/>
+      <c r="B122" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C122" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A83" s="6" t="s">
+    <row r="123" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B123" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C123" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A84" s="6"/>
-      <c r="B84" s="3" t="s">
+    <row r="124" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A124" s="2"/>
+      <c r="B124" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C124" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A85" s="6"/>
-      <c r="B85" s="3" t="s">
+    <row r="125" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A125" s="2"/>
+      <c r="B125" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A126" s="2"/>
+      <c r="B126" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C126" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A86" s="6"/>
-      <c r="B86" s="3" t="s">
+    <row r="127" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A127" s="2"/>
+      <c r="B127" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C127" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A87" s="6"/>
-      <c r="B87" s="3" t="s">
+    <row r="128" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A128" s="2"/>
+      <c r="B128" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C128" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A88" s="6"/>
-      <c r="B88" s="3" t="s">
+    <row r="129" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A129" s="2"/>
+      <c r="B129" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C129" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A89" s="4" t="s">
+    <row r="130" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B130" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C130" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A90" s="4"/>
-      <c r="B90" s="3" t="s">
+    <row r="131" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A131" s="2"/>
+      <c r="B131" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C131" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A91" s="4" t="s">
+    <row r="132" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B132" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C132" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A92" s="4"/>
-      <c r="B92" s="5" t="s">
+    <row r="133" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A133" s="2"/>
+      <c r="B133" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C133" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A93" s="4"/>
-      <c r="B93" s="3" t="s">
+    <row r="134" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A134" s="2"/>
+      <c r="B134" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A135" s="2"/>
+      <c r="B135" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A136" s="2"/>
+      <c r="B136" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A137" s="2"/>
+      <c r="B137" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A138" s="2"/>
+      <c r="B138" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C138" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A94" s="4"/>
-      <c r="B94" s="3" t="s">
+    <row r="139" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A139" s="2"/>
+      <c r="B139" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C139" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
+    <row r="140" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-    </row>
-    <row r="96" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A96" s="4" t="s">
+      <c r="B140" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B141" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C141" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A97" s="4"/>
-      <c r="B97" s="5" t="s">
+    <row r="142" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A142" s="2"/>
+      <c r="B142" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C142" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A98" s="4"/>
-      <c r="B98" s="5" t="s">
+    <row r="143" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A143" s="2"/>
+      <c r="B143" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C143" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A99" s="4"/>
-      <c r="B99" s="5" t="s">
+    <row r="144" spans="1:3" ht="21.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="2"/>
+      <c r="B144" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A145" s="2"/>
+      <c r="B145" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C145" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A100" s="4"/>
-      <c r="B100" s="3" t="s">
+    <row r="146" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A146" s="2"/>
+      <c r="B146" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C146" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A101" s="6" t="s">
+    <row r="147" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B147" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C147" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A102" s="6"/>
-      <c r="B102" s="5" t="s">
+    <row r="148" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A148" s="2"/>
+      <c r="B148" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C148" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A103" s="4" t="s">
+    <row r="149" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B149" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C149" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A104" s="4"/>
-      <c r="B104" s="5" t="s">
+    <row r="150" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A150" s="2"/>
+      <c r="B150" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C150" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A105" s="4"/>
-      <c r="B105" s="5" t="s">
+    <row r="151" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A151" s="2"/>
+      <c r="B151" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C151" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A106" s="4"/>
-      <c r="B106" s="5" t="s">
+    <row r="152" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A152" s="2"/>
+      <c r="B152" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C152" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A107" s="4"/>
-      <c r="B107" s="5" t="s">
+    <row r="153" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A153" s="2"/>
+      <c r="B153" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C153" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A108" s="4"/>
-      <c r="B108" s="5" t="s">
+    <row r="154" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A154" s="2"/>
+      <c r="B154" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A155" s="2"/>
+      <c r="B155" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C155" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A109" s="4"/>
-      <c r="B109" s="5" t="s">
+    <row r="156" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A156" s="2"/>
+      <c r="B156" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A157" s="2"/>
+      <c r="B157" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A158" s="2"/>
+      <c r="B158" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C158" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A110" s="4"/>
-      <c r="B110" s="5" t="s">
+    <row r="159" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A159" s="2"/>
+      <c r="B159" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C110" s="5" t="s">
+      <c r="C159" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A111" s="4"/>
-      <c r="B111" s="5" t="s">
+    <row r="160" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A160" s="2"/>
+      <c r="B160" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C160" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A112" s="4"/>
-      <c r="B112" s="5" t="s">
+    <row r="161" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A161" s="2"/>
+      <c r="B161" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C161" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A113" s="4"/>
-      <c r="B113" s="3" t="s">
+    <row r="162" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A162" s="2"/>
+      <c r="B162" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C162" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A114" s="4"/>
-      <c r="B114" s="3" t="s">
+    <row r="163" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A163" s="2"/>
+      <c r="B163" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C163" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A115" s="4"/>
-      <c r="B115" s="3" t="s">
+    <row r="164" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A164" s="2"/>
+      <c r="B164" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C164" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A116" s="4" t="s">
+    <row r="165" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B165" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C165" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A117" s="4"/>
-      <c r="B117" s="3" t="s">
+    <row r="166" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A166" s="2"/>
+      <c r="B166" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C166" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
+    <row r="167" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B167" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C167" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A168" s="2"/>
+      <c r="B168" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C168" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A119" s="4" t="s">
+    <row r="169" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B169" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C169" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A120" s="4"/>
-      <c r="B120" s="5" t="s">
+    <row r="170" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A170" s="2"/>
+      <c r="B170" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C120" s="5" t="s">
+      <c r="C170" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A121" s="4"/>
-      <c r="B121" s="3" t="s">
+    <row r="171" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A171" s="2"/>
+      <c r="B171" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C171" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A122" s="6" t="s">
+    <row r="172" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B172" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C172" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A123" s="6"/>
-      <c r="B123" s="3" t="s">
+    <row r="173" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A173" s="2"/>
+      <c r="B173" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C173" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A124" s="6"/>
-      <c r="B124" s="5" t="s">
+    <row r="174" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A174" s="2"/>
+      <c r="B174" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C174" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A125" s="6"/>
-      <c r="B125" s="5" t="s">
+    <row r="175" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A175" s="2"/>
+      <c r="B175" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="C175" s="4" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A126" s="6"/>
-      <c r="B126" s="7" t="s">
+    <row r="176" spans="1:3" ht="21.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="2"/>
+      <c r="B176" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A177" s="2"/>
+      <c r="B177" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="C177" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A127" s="6"/>
-      <c r="B127" s="5" t="s">
+    <row r="178" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A178" s="2"/>
+      <c r="B178" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A179" s="2"/>
+      <c r="B179" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="C179" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A128" s="6"/>
-      <c r="B128" s="5" t="s">
+    <row r="180" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A180" s="2"/>
+      <c r="B180" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="C180" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A129" s="6"/>
-      <c r="B129" s="3" t="s">
+    <row r="181" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A181" s="2"/>
+      <c r="B181" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A182" s="2"/>
+      <c r="B182" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C182" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A183" s="2"/>
+      <c r="B183" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C183" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A130" s="6"/>
-      <c r="B130" s="3" t="s">
+    <row r="184" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A184" s="2"/>
+      <c r="B184" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C184" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A131" s="6"/>
-      <c r="B131" s="3" t="s">
+    <row r="185" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A185" s="2"/>
+      <c r="B185" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C185" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A132" s="6"/>
-      <c r="B132" s="3" t="s">
+    <row r="186" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A186" s="2"/>
+      <c r="B186" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C186" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A133" s="6" t="s">
+    <row r="187" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B187" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C187" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A134" s="6"/>
-      <c r="B134" s="3" t="s">
+    <row r="188" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A188" s="2"/>
+      <c r="B188" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C188" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A135" s="6"/>
-      <c r="B135" s="3" t="s">
+    <row r="189" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A189" s="2"/>
+      <c r="B189" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C189" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A136" s="6"/>
-      <c r="B136" s="3" t="s">
+    <row r="190" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A190" s="2"/>
+      <c r="B190" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C190" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A191" s="2"/>
+      <c r="B191" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="C191" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A137" s="6"/>
-      <c r="B137" s="5" t="s">
+    <row r="192" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A192" s="2"/>
+      <c r="B192" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C192" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A193" s="2"/>
+      <c r="B193" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C193" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A194" s="2"/>
+      <c r="B194" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="C194" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" ht="21.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A195" s="2"/>
+      <c r="B195" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A196" s="2"/>
+      <c r="B196" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="C196" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A138" s="6"/>
-      <c r="B138" s="7" t="s">
+    <row r="197" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A197" s="2"/>
+      <c r="B197" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="C197" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A139" s="6"/>
-      <c r="B139" s="5" t="s">
+    <row r="198" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A198" s="2"/>
+      <c r="B198" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="C198" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A140" s="6"/>
-      <c r="B140" s="5" t="s">
+    <row r="199" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A199" s="2"/>
+      <c r="B199" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="C199" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A141" s="6"/>
-      <c r="B141" s="3" t="s">
+    <row r="200" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A200" s="2"/>
+      <c r="B200" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="C200" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A142" s="6"/>
-      <c r="B142" s="5" t="s">
+    <row r="201" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A201" s="2"/>
+      <c r="B201" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="C201" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A143" s="6"/>
-      <c r="B143" s="5" t="s">
+    <row r="202" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A202" s="2"/>
+      <c r="B202" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C143" s="5" t="s">
+      <c r="C202" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A144" s="6"/>
-      <c r="B144" s="5" t="s">
+    <row r="203" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A203" s="2"/>
+      <c r="B203" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="C203" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A145" s="6"/>
-      <c r="B145" s="3" t="s">
+    <row r="204" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A204" s="2"/>
+      <c r="B204" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C145" s="5" t="s">
+      <c r="C204" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A146" s="6"/>
-      <c r="B146" s="3" t="s">
+    <row r="205" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A205" s="2"/>
+      <c r="B205" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="C205" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A147" s="6"/>
-      <c r="B147" s="3" t="s">
+    <row r="206" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A206" s="2"/>
+      <c r="B206" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C206" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A148" s="6"/>
-      <c r="B148" s="3" t="s">
+    <row r="207" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A207" s="2"/>
+      <c r="B207" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C207" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A149" s="6"/>
-      <c r="B149" s="3" t="s">
+    <row r="208" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A208" s="2"/>
+      <c r="B208" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C208" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A150" s="6"/>
-      <c r="B150" s="3" t="s">
+    <row r="209" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A209" s="2"/>
+      <c r="B209" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C209" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A151" s="6" t="s">
+    <row r="210" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A210" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B210" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C210" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A152" s="6"/>
-      <c r="B152" s="3" t="s">
+    <row r="211" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A211" s="2"/>
+      <c r="B211" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C152" s="5" t="s">
+      <c r="C211" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A153" s="6"/>
-      <c r="B153" s="5" t="s">
+    <row r="212" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A212" s="2"/>
+      <c r="B212" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="C212" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A154" s="6"/>
-      <c r="B154" s="3" t="s">
+    <row r="213" spans="1:3" ht="21.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A213" s="2"/>
+      <c r="B213" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A214" s="2"/>
+      <c r="B214" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" ht="21.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A215" s="2"/>
+      <c r="B215" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A216" s="2"/>
+      <c r="B216" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C154" s="5" t="s">
+      <c r="C216" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A155" s="6"/>
-      <c r="B155" s="7" t="s">
+    <row r="217" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A217" s="2"/>
+      <c r="B217" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A218" s="2"/>
+      <c r="B218" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A219" s="2"/>
+      <c r="B219" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C155" s="5" t="s">
+      <c r="C219" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A156" s="6"/>
-      <c r="B156" s="5" t="s">
+    <row r="220" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A220" s="2"/>
+      <c r="B220" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C156" s="5" t="s">
+      <c r="C220" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A157" s="6"/>
-      <c r="B157" s="5" t="s">
+    <row r="221" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A221" s="2"/>
+      <c r="B221" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A222" s="2"/>
+      <c r="B222" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C157" s="5" t="s">
+      <c r="C222" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A158" s="6"/>
-      <c r="B158" s="3" t="s">
+    <row r="223" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A223" s="2"/>
+      <c r="B223" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C223" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A159" s="6"/>
-      <c r="B159" s="3" t="s">
+    <row r="224" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A224" s="2"/>
+      <c r="B224" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="C224" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A160" s="6"/>
-      <c r="B160" s="3" t="s">
+    <row r="225" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A225" s="2"/>
+      <c r="B225" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="C225" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A161" s="6"/>
-      <c r="B161" s="3" t="s">
+    <row r="226" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A226" s="2"/>
+      <c r="B226" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C226" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A162" s="6"/>
-      <c r="B162" s="3" t="s">
+    <row r="227" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A227" s="2"/>
+      <c r="B227" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C227" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A163" s="4" t="s">
+    <row r="228" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A228" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B228" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="C228" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A164" s="4"/>
-      <c r="B164" s="5" t="s">
+    <row r="229" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A229" s="2"/>
+      <c r="B229" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C164" s="5" t="s">
+      <c r="C229" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A165" s="4"/>
-      <c r="B165" s="7" t="s">
+    <row r="230" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A230" s="2"/>
+      <c r="B230" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C165" s="5" t="s">
+      <c r="C230" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="21" x14ac:dyDescent="0.3">
-      <c r="A166" s="4"/>
-      <c r="B166" s="7" t="s">
+    <row r="231" spans="1:3" ht="21" x14ac:dyDescent="0.3">
+      <c r="A231" s="2"/>
+      <c r="B231" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C231" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A167" s="4"/>
-      <c r="B167" s="3" t="s">
+    <row r="232" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A232" s="2"/>
+      <c r="B232" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C232" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A233" s="2"/>
+      <c r="B233" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C167" s="5" t="s">
+      <c r="C233" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A168" s="4"/>
-      <c r="B168" s="5" t="s">
+    <row r="234" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A234" s="2"/>
+      <c r="B234" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C234" s="4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A235" s="2"/>
+      <c r="B235" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="C235" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A169" s="4"/>
-      <c r="B169" s="5" t="s">
+    <row r="236" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A236" s="2"/>
+      <c r="B236" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C236" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A237" s="2"/>
+      <c r="B237" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C237" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" ht="21.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A238" s="2"/>
+      <c r="B238" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C238" s="4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A239" s="2"/>
+      <c r="B239" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C169" s="5" t="s">
+      <c r="C239" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A170" s="4"/>
-      <c r="B170" s="3" t="s">
+    <row r="240" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A240" s="2"/>
+      <c r="B240" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C240" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A171" s="4"/>
-      <c r="B171" s="3" t="s">
+    <row r="241" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A241" s="2"/>
+      <c r="B241" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C241" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A172" s="4"/>
-      <c r="B172" s="3" t="s">
+    <row r="242" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A242" s="2"/>
+      <c r="B242" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C242" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A173" s="4" t="s">
+    <row r="243" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A243" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B243" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C173" s="5" t="s">
+      <c r="C243" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A174" s="4"/>
-      <c r="B174" s="5" t="s">
+    <row r="244" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A244" s="2"/>
+      <c r="B244" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C244" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A245" s="2"/>
+      <c r="B245" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C245" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A246" s="2"/>
+      <c r="B246" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C246" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A247" s="2"/>
+      <c r="B247" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C174" s="5" t="s">
+      <c r="C247" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A175" s="4"/>
-      <c r="B175" s="3" t="s">
+    <row r="248" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A248" s="2"/>
+      <c r="B248" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C248" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A176" s="6" t="s">
+    <row r="249" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A249" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B249" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C176" s="5" t="s">
+      <c r="C249" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A177" s="6"/>
-      <c r="B177" s="7" t="s">
+    <row r="250" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A250" s="2"/>
+      <c r="B250" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C250" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A178" s="2" t="s">
+    <row r="251" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B251" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C251" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A179" s="2" t="s">
+    <row r="252" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B179" s="3"/>
-      <c r="C179" s="3"/>
-    </row>
-    <row r="180" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A180" s="6" t="s">
+      <c r="B252" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A253" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B180" s="7" t="s">
+      <c r="B253" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C180" s="5" t="s">
+      <c r="C253" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A181" s="6"/>
-      <c r="B181" s="7" t="s">
+    <row r="254" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A254" s="2"/>
+      <c r="B254" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A255" s="2"/>
+      <c r="B255" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C255" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A182" s="2" t="s">
+    <row r="256" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A256" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B182" s="3"/>
-      <c r="C182" s="3"/>
-    </row>
-    <row r="183" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A183" s="6" t="s">
+      <c r="B256" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A257" s="2"/>
+      <c r="B257" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A258" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B258" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C258" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A259" s="2"/>
+      <c r="B259" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C259" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A184" s="6"/>
-      <c r="B184" s="3" t="s">
+    <row r="260" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A260" s="2"/>
+      <c r="B260" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C260" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A261" s="2"/>
+      <c r="B261" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C184" s="5" t="s">
+      <c r="C261" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A185" s="6"/>
-      <c r="B185" s="5" t="s">
+    <row r="262" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="2"/>
+      <c r="B262" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C262" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="2"/>
+      <c r="B263" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C263" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A264" s="2"/>
+      <c r="B264" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C185" s="5" t="s">
+      <c r="C264" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A186" s="6"/>
-      <c r="B186" s="3" t="s">
+    <row r="265" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A265" s="2"/>
+      <c r="B265" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C265" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A187" s="6"/>
-      <c r="B187" s="3" t="s">
+    <row r="266" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A266" s="2"/>
+      <c r="B266" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="C266" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A188" s="4" t="s">
+    <row r="267" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A267" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B188" s="3" t="s">
+      <c r="B267" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C188" s="5" t="s">
+      <c r="C267" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A189" s="4"/>
-      <c r="B189" s="3" t="s">
+    <row r="268" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A268" s="2"/>
+      <c r="B268" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C189" s="5" t="s">
+      <c r="C268" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A190" s="4"/>
-      <c r="B190" s="5" t="s">
+    <row r="269" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A269" s="2"/>
+      <c r="B269" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C269" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A270" s="2"/>
+      <c r="B270" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C190" s="5" t="s">
+      <c r="C270" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A191" s="4"/>
-      <c r="B191" s="5" t="s">
+    <row r="271" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A271" s="2"/>
+      <c r="B271" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C271" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A272" s="2"/>
+      <c r="B272" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C191" s="5" t="s">
+      <c r="C272" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A192" s="4"/>
-      <c r="B192" s="3" t="s">
+    <row r="273" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A273" s="2"/>
+      <c r="B273" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C192" s="5" t="s">
+      <c r="C273" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A193" s="4"/>
-      <c r="B193" s="3" t="s">
+    <row r="274" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A274" s="2"/>
+      <c r="B274" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="C274" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A194" s="4" t="s">
+    <row r="275" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A275" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B275" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C194" s="5" t="s">
+      <c r="C275" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A195" s="4"/>
-      <c r="B195" s="3" t="s">
+    <row r="276" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A276" s="2"/>
+      <c r="B276" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C195" s="5" t="s">
+      <c r="C276" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A196" s="4"/>
-      <c r="B196" s="3" t="s">
+    <row r="277" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A277" s="2"/>
+      <c r="B277" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A278" s="2"/>
+      <c r="B278" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="C278" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A197" s="4" t="s">
+    <row r="279" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A279" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B279" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C197" s="5" t="s">
+      <c r="C279" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A198" s="4"/>
-      <c r="B198" s="3" t="s">
+    <row r="280" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A280" s="2"/>
+      <c r="B280" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C198" s="5" t="s">
+      <c r="C280" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A199" s="4"/>
-      <c r="B199" s="5" t="s">
+    <row r="281" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A281" s="2"/>
+      <c r="B281" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C199" s="5" t="s">
+      <c r="C281" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A200" s="4"/>
-      <c r="B200" s="5" t="s">
+    <row r="282" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A282" s="2"/>
+      <c r="B282" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C200" s="5" t="s">
+      <c r="C282" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A201" s="4"/>
-      <c r="B201" s="5" t="s">
+    <row r="283" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A283" s="2"/>
+      <c r="B283" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C283" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A284" s="2"/>
+      <c r="B284" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C201" s="5" t="s">
+      <c r="C284" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A202" s="4"/>
-      <c r="B202" s="3" t="s">
+    <row r="285" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A285" s="2"/>
+      <c r="B285" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A286" s="2"/>
+      <c r="B286" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C202" s="5" t="s">
+      <c r="C286" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A203" s="4"/>
-      <c r="B203" s="3" t="s">
+    <row r="287" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A287" s="2"/>
+      <c r="B287" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C203" s="5" t="s">
+      <c r="C287" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A204" s="4"/>
-      <c r="B204" s="3" t="s">
+    <row r="288" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A288" s="2"/>
+      <c r="B288" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="C288" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A205" s="4"/>
-      <c r="B205" s="3" t="s">
+    <row r="289" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A289" s="2"/>
+      <c r="B289" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="C289" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A206" s="6" t="s">
+    <row r="290" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A290" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B290" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="C290" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A207" s="6"/>
-      <c r="B207" s="3" t="s">
+    <row r="291" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A291" s="2"/>
+      <c r="B291" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="C291" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A208" s="6" t="s">
+    <row r="292" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A292" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B292" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C208" s="5" t="s">
+      <c r="C292" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A209" s="6"/>
-      <c r="B209" s="3" t="s">
+    <row r="293" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A293" s="2"/>
+      <c r="B293" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C209" s="5" t="s">
+      <c r="C293" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A210" s="6"/>
-      <c r="B210" s="5" t="s">
+    <row r="294" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A294" s="2"/>
+      <c r="B294" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C210" s="5" t="s">
+      <c r="C294" s="4" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A211" s="6"/>
-      <c r="B211" s="5" t="s">
+    <row r="295" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A295" s="2"/>
+      <c r="B295" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C211" s="5" t="s">
+      <c r="C295" s="4" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A212" s="6"/>
-      <c r="B212" s="3" t="s">
+    <row r="296" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A296" s="2"/>
+      <c r="B296" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C212" s="5" t="s">
+      <c r="C296" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A213" s="6"/>
-      <c r="B213" s="3" t="s">
+    <row r="297" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A297" s="2"/>
+      <c r="B297" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A298" s="2"/>
+      <c r="B298" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C213" s="5" t="s">
+      <c r="C298" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A214" s="6"/>
-      <c r="B214" s="3" t="s">
+    <row r="299" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A299" s="2"/>
+      <c r="B299" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C214" s="3" t="s">
+      <c r="C299" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A215" s="6"/>
-      <c r="B215" s="3" t="s">
+    <row r="300" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A300" s="2"/>
+      <c r="B300" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C215" s="3" t="s">
+      <c r="C300" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A216" s="2" t="s">
+    <row r="301" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A301" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="B301" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C301" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A302" s="2"/>
+      <c r="B302" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C302" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A303" s="2"/>
+      <c r="B303" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C303" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A304" s="2"/>
+      <c r="B304" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="C304" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A217" s="2" t="s">
+    <row r="305" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A305" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B217" s="3"/>
-      <c r="C217" s="3"/>
-    </row>
-    <row r="218" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A218" s="2" t="s">
+      <c r="B305" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C305" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A306" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B218" s="3"/>
-      <c r="C218" s="3"/>
-    </row>
-    <row r="219" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A219" s="4" t="s">
+      <c r="B306" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C306" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A307" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B307" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C219" s="5" t="s">
+      <c r="C307" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A220" s="4"/>
-      <c r="B220" s="3" t="s">
+    <row r="308" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A308" s="2"/>
+      <c r="B308" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C308" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A309" s="2"/>
+      <c r="B309" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C309" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A310" s="2"/>
+      <c r="B310" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="C310" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A221" s="6" t="s">
+    <row r="311" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A311" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B221" s="3" t="s">
+      <c r="B311" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C221" s="3" t="s">
+      <c r="C311" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A222" s="6"/>
-      <c r="B222" s="3" t="s">
+    <row r="312" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A312" s="2"/>
+      <c r="B312" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C312" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A313" s="2"/>
+      <c r="B313" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C313" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A314" s="2"/>
+      <c r="B314" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C314" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A315" s="2"/>
+      <c r="B315" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="C315" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A223" s="6" t="s">
+    <row r="316" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A316" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B316" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C223" s="5" t="s">
+      <c r="C316" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A224" s="6"/>
-      <c r="B224" s="3" t="s">
+    <row r="317" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A317" s="2"/>
+      <c r="B317" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C317" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A318" s="2"/>
+      <c r="B318" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C318" s="4" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A319" s="2"/>
+      <c r="B319" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C224" s="3" t="s">
+      <c r="C319" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A225" s="6"/>
-      <c r="B225" s="3" t="s">
+    <row r="320" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A320" s="2"/>
+      <c r="B320" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C225" s="3" t="s">
+      <c r="C320" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="18" x14ac:dyDescent="0.3">
-      <c r="A226" s="2" t="s">
+    <row r="321" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A321" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B226" s="3"/>
-      <c r="C226" s="3"/>
+      <c r="B321" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C321" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A322" s="2"/>
+      <c r="B322" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C322" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" ht="18" x14ac:dyDescent="0.3">
+      <c r="A323" s="2"/>
+      <c r="B323" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C323" s="4" t="s">
+        <v>310</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="A221:A222"/>
-    <mergeCell ref="A206:A207"/>
-    <mergeCell ref="A183:A187"/>
-    <mergeCell ref="A208:A215"/>
-    <mergeCell ref="A223:A225"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="A197:A205"/>
-    <mergeCell ref="A46:A66"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="A133:A150"/>
-    <mergeCell ref="A151:A162"/>
-    <mergeCell ref="A122:A132"/>
-    <mergeCell ref="A103:A115"/>
-    <mergeCell ref="A194:A196"/>
-    <mergeCell ref="A76:A82"/>
-    <mergeCell ref="A176:A177"/>
-    <mergeCell ref="A180:A181"/>
+  <mergeCells count="39">
+    <mergeCell ref="A316:A320"/>
+    <mergeCell ref="A307:A310"/>
+    <mergeCell ref="A279:A289"/>
+    <mergeCell ref="A275:A278"/>
+    <mergeCell ref="A267:A274"/>
+    <mergeCell ref="A301:A304"/>
+    <mergeCell ref="A210:A227"/>
+    <mergeCell ref="A172:A186"/>
+    <mergeCell ref="A149:A164"/>
+    <mergeCell ref="A113:A122"/>
+    <mergeCell ref="A311:A315"/>
+    <mergeCell ref="A290:A291"/>
+    <mergeCell ref="A292:A300"/>
     <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A34:A36"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A96:A100"/>
-    <mergeCell ref="A83:A88"/>
-    <mergeCell ref="A67:A75"/>
-    <mergeCell ref="A6:A28"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="A163:A172"/>
-    <mergeCell ref="A173:A175"/>
-    <mergeCell ref="A188:A193"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A51:A57"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="A123:A129"/>
+    <mergeCell ref="A96:A112"/>
+    <mergeCell ref="A6:A35"/>
+    <mergeCell ref="A63:A95"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A256:A257"/>
+    <mergeCell ref="A321:A323"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A258:A266"/>
+    <mergeCell ref="A249:A250"/>
+    <mergeCell ref="A253:A255"/>
+    <mergeCell ref="A132:A139"/>
+    <mergeCell ref="A141:A146"/>
+    <mergeCell ref="A165:A166"/>
+    <mergeCell ref="A169:A171"/>
+    <mergeCell ref="A228:A242"/>
+    <mergeCell ref="A243:A248"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="A187:A209"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C63" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C67" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C84" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C121" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C151" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C158" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C204" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C186" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C113" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B102" r:id="rId10" location="a12-transferproxy-keccak256" display="https://github.com/sec-bit/awesome-buggy-erc20-tokens/blob/master/ERC20_token_issue_list.md - a12-transferproxy-keccak256" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C92" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C96" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C124" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C171" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C210" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C223" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C288" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C265" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C162" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B148" r:id="rId10" location="a12-transferproxy-keccak256" display="https://github.com/sec-bit/awesome-buggy-erc20-tokens/blob/master/ERC20_token_issue_list.md - a12-transferproxy-keccak256" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
     <hyperlink ref="C8" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
     <hyperlink ref="C9" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="C12" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C18" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C20" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C21" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C22" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C24" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C25" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C46" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C101" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C102" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C104" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C105" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C106" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C109" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C110" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C111" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C112" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C197" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C203" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C202" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C26" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C42" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C50" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C51" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C81" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C93" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C146" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C154" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C192" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C198" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C208" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C213" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C209" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C223" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C47" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C72" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C76" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="C86" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C123" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C129" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C135" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="C152" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="C176" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="C180" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="C136" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="C219" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C25" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C27" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C28" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C29" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C31" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C32" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C63" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C147" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C148" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C150" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C151" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C152" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C158" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C159" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C160" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C161" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="C279" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C287" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C286" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C33" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C57" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C76" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C78" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C121" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C138" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C205" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C216" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C273" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C280" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C292" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C298" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C293" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C316" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C64" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C109" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C113" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C127" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C173" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C183" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C189" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C211" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C249" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C253" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C191" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C307" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
     <hyperlink ref="C2" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="C27" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="C30" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="C34" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="C37" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="C56" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="C71" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="C77" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="C80" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="C89" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="C91" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="C96" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="C116" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="C118" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="C119" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="C134" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="C141" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="C145" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="C159" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="C160" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="C163" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="C173" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="C184" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="C188" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="C189" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="C194" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="C212" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="B199" r:id="rId86" display="https://smartcontractsecurity.github.io/SWC-registry/docs/SWC-118" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="C199" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C34" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C37" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C41" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="C48" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C85" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C108" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C114" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C120" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C130" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C132" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C141" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C165" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C168" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C169" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C188" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C200" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C204" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C224" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C225" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C228" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C243" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C261" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C267" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C268" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C275" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C296" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="B281" r:id="rId86" display="https://smartcontractsecurity.github.io/SWC-registry/docs/SWC-118" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C281" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
     <hyperlink ref="C7" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="B144" r:id="rId89" tooltip="Auction" display="https://github.com/ballesterosbr/contracts/tree/master/Auction" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="B128" r:id="rId90" tooltip="GasLimit" display="https://github.com/ballesterosbr/contracts/tree/master/GasLimit" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="B23" r:id="rId91" tooltip="Overflow_Underflow" display="https://github.com/ballesterosbr/contracts/tree/master/Overflow_Underflow" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="B62" r:id="rId92" tooltip="Reentrancy" display="https://github.com/ballesterosbr/contracts/tree/master/Reentrancy" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="C62" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="C23" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="C128" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="C144" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="B153" r:id="rId97" tooltip="Block Properties Dependence" display="https://github.com/Lianantech/ETH-Security/tree/master/Block Properties Dependence" xr:uid="{BF4D3B76-FB96-4EBA-A80C-A43DA76AE5B0}"/>
-    <hyperlink ref="B107" r:id="rId98" tooltip="Coding Conventions (including Fake Deposit)" display="https://github.com/Lianantech/ETH-Security/tree/master/Coding Conventions (including Fake Deposit)" xr:uid="{8DB3903D-6BDC-4B7C-9C26-D97DCAC24F87}"/>
-    <hyperlink ref="B120" r:id="rId99" tooltip="DoS" display="https://github.com/Lianantech/ETH-Security/tree/master/DoS" xr:uid="{2FA3BBE2-3A0F-42ED-921C-4A7F7C5B660C}"/>
-    <hyperlink ref="B124" r:id="rId100" tooltip="DoS" display="https://github.com/Lianantech/ETH-Security/tree/master/DoS" xr:uid="{E3CD586F-0991-4DB2-8929-740201B39905}"/>
-    <hyperlink ref="B139" r:id="rId101" tooltip="DoS" display="https://github.com/Lianantech/ETH-Security/tree/master/DoS" xr:uid="{065D6A37-F384-40BE-8211-C548E807A3FE}"/>
+    <hyperlink ref="B203" r:id="rId89" tooltip="Auction" display="https://github.com/ballesterosbr/contracts/tree/master/Auction" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B180" r:id="rId90" tooltip="GasLimit" display="https://github.com/ballesterosbr/contracts/tree/master/GasLimit" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="B30" r:id="rId91" tooltip="Overflow_Underflow" display="https://github.com/ballesterosbr/contracts/tree/master/Overflow_Underflow" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="B91" r:id="rId92" tooltip="Reentrancy" display="https://github.com/ballesterosbr/contracts/tree/master/Reentrancy" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C91" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C30" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C180" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C203" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="B212" r:id="rId97" tooltip="Block Properties Dependence" display="https://github.com/Lianantech/ETH-Security/tree/master/Block Properties Dependence" xr:uid="{BF4D3B76-FB96-4EBA-A80C-A43DA76AE5B0}"/>
+    <hyperlink ref="B153" r:id="rId98" tooltip="Coding Conventions (including Fake Deposit)" display="https://github.com/Lianantech/ETH-Security/tree/master/Coding Conventions (including Fake Deposit)" xr:uid="{8DB3903D-6BDC-4B7C-9C26-D97DCAC24F87}"/>
+    <hyperlink ref="B170" r:id="rId99" tooltip="DoS" display="https://github.com/Lianantech/ETH-Security/tree/master/DoS" xr:uid="{2FA3BBE2-3A0F-42ED-921C-4A7F7C5B660C}"/>
+    <hyperlink ref="B174" r:id="rId100" tooltip="DoS" display="https://github.com/Lianantech/ETH-Security/tree/master/DoS" xr:uid="{E3CD586F-0991-4DB2-8929-740201B39905}"/>
+    <hyperlink ref="B198" r:id="rId101" tooltip="DoS" display="https://github.com/Lianantech/ETH-Security/tree/master/DoS" xr:uid="{065D6A37-F384-40BE-8211-C548E807A3FE}"/>
     <hyperlink ref="B4" r:id="rId102" tooltip="Floating-point and precision issues" display="https://github.com/Lianantech/ETH-Security/tree/master/Floating-point and precision issues" xr:uid="{EF9E503D-E17A-45FF-B8B3-2B3E5DCBDC6E}"/>
     <hyperlink ref="B11" r:id="rId103" tooltip="Integer OverflowsUnderflows" display="https://github.com/Lianantech/ETH-Security/tree/master/Integer OverflowsUnderflows" xr:uid="{3BE95068-F406-4922-8331-A0586EF2EDD0}"/>
-    <hyperlink ref="B191" r:id="rId104" tooltip="Misuse of tx.origin for authorization" display="https://github.com/Lianantech/ETH-Security/tree/master/Misuse of tx.origin for authorization" xr:uid="{E0ACF437-B60A-4174-AFFD-484E085370A1}"/>
-    <hyperlink ref="B169" r:id="rId105" tooltip="Race Condition" display="https://github.com/Lianantech/ETH-Security/tree/master/Race Condition" xr:uid="{39670DE7-D5CA-4C07-8B87-8CF4EBF199B2}"/>
-    <hyperlink ref="B164" r:id="rId106" tooltip="Risk of using approve" display="https://github.com/Lianantech/ETH-Security/tree/master/Risk of using approve" xr:uid="{D6E7469D-BFE0-42B7-924B-4079FCA8CE4F}"/>
-    <hyperlink ref="B41" r:id="rId107" tooltip="Uninitialized storage pointers" display="https://github.com/Lianantech/ETH-Security/tree/master/Uninitialized storage pointers" xr:uid="{1BD18B05-89E7-47DF-A2E3-9DF472EF6E51}"/>
-    <hyperlink ref="B210" r:id="rId108" tooltip="State Variables are public on chain" display="https://github.com/Lianantech/ETH-Security/tree/master/State Variables are public on chain" xr:uid="{FAD73AC6-C1B4-4A2D-A077-1E25C77EB9DE}"/>
-    <hyperlink ref="B201" r:id="rId109" tooltip="Security Risks caused during development" display="https://github.com/Lianantech/ETH-Security/tree/master/Security Risks caused during development" xr:uid="{450C5F62-3144-4F17-B50F-6BCD21CEA676}"/>
-    <hyperlink ref="B68" r:id="rId110" tooltip="Misuse of Low-level Function" display="https://github.com/Lianantech/ETH-Security/tree/master/Misuse of Low-level Function" xr:uid="{CAA330BD-4773-4BDF-9DF4-5AB0422D43E8}"/>
-    <hyperlink ref="B61" r:id="rId111" tooltip="Ether Transactions risks" display="https://github.com/Lianantech/ETH-Security/tree/master/Ether Transactions risks" xr:uid="{6EA73316-FBC2-4095-926D-68FDCA462525}"/>
+    <hyperlink ref="B272" r:id="rId104" tooltip="Misuse of tx.origin for authorization" display="https://github.com/Lianantech/ETH-Security/tree/master/Misuse of tx.origin for authorization" xr:uid="{E0ACF437-B60A-4174-AFFD-484E085370A1}"/>
+    <hyperlink ref="B239" r:id="rId105" tooltip="Race Condition" display="https://github.com/Lianantech/ETH-Security/tree/master/Race Condition" xr:uid="{39670DE7-D5CA-4C07-8B87-8CF4EBF199B2}"/>
+    <hyperlink ref="B229" r:id="rId106" tooltip="Risk of using approve" display="https://github.com/Lianantech/ETH-Security/tree/master/Risk of using approve" xr:uid="{D6E7469D-BFE0-42B7-924B-4079FCA8CE4F}"/>
+    <hyperlink ref="B54" r:id="rId107" tooltip="Uninitialized storage pointers" display="https://github.com/Lianantech/ETH-Security/tree/master/Uninitialized storage pointers" xr:uid="{1BD18B05-89E7-47DF-A2E3-9DF472EF6E51}"/>
+    <hyperlink ref="B294" r:id="rId108" tooltip="State Variables are public on chain" display="https://github.com/Lianantech/ETH-Security/tree/master/State Variables are public on chain" xr:uid="{FAD73AC6-C1B4-4A2D-A077-1E25C77EB9DE}"/>
+    <hyperlink ref="B284" r:id="rId109" tooltip="Security Risks caused during development" display="https://github.com/Lianantech/ETH-Security/tree/master/Security Risks caused during development" xr:uid="{450C5F62-3144-4F17-B50F-6BCD21CEA676}"/>
+    <hyperlink ref="B98" r:id="rId110" tooltip="Misuse of Low-level Function" display="https://github.com/Lianantech/ETH-Security/tree/master/Misuse of Low-level Function" xr:uid="{CAA330BD-4773-4BDF-9DF4-5AB0422D43E8}"/>
+    <hyperlink ref="B90" r:id="rId111" tooltip="Ether Transactions risks" display="https://github.com/Lianantech/ETH-Security/tree/master/Ether Transactions risks" xr:uid="{6EA73316-FBC2-4095-926D-68FDCA462525}"/>
     <hyperlink ref="C4" r:id="rId112" xr:uid="{BE853D7F-602A-448B-8444-DB1C4287C66E}"/>
     <hyperlink ref="C11" r:id="rId113" xr:uid="{18816352-52AC-4927-88E3-748AFFBA2A73}"/>
-    <hyperlink ref="C41" r:id="rId114" xr:uid="{0B35A52E-C845-4BD5-8E20-C620CC57C9CE}"/>
-    <hyperlink ref="C39" r:id="rId115" xr:uid="{71295A37-B187-4134-8462-7F7CA649DA5E}"/>
-    <hyperlink ref="C61" r:id="rId116" xr:uid="{B6B2EB0D-9721-4F3B-942A-8FAF98E31156}"/>
-    <hyperlink ref="C68" r:id="rId117" xr:uid="{097B30CF-6A08-4390-95EC-C7EDCEB18A64}"/>
-    <hyperlink ref="C107" r:id="rId118" xr:uid="{3358C9B8-274C-46E0-83D3-375B032D94AD}"/>
-    <hyperlink ref="C120" r:id="rId119" xr:uid="{BC641D82-B74F-4A31-87CE-6735A2D9D773}"/>
-    <hyperlink ref="C124" r:id="rId120" xr:uid="{8A28C9DB-E284-4D1E-8844-A9BCF38AA5A0}"/>
-    <hyperlink ref="C139" r:id="rId121" xr:uid="{974205A1-5396-4B2F-9CCE-F2A57B4D0F4B}"/>
-    <hyperlink ref="C153" r:id="rId122" xr:uid="{BD1354DA-E447-42FE-8E1B-2466E53CA9B6}"/>
-    <hyperlink ref="C169" r:id="rId123" xr:uid="{9769D23A-468E-4760-BFB1-B98F2B634283}"/>
-    <hyperlink ref="C164" r:id="rId124" xr:uid="{42623327-8EDD-4C9B-BE3E-2C689795CA08}"/>
-    <hyperlink ref="C191" r:id="rId125" xr:uid="{84933E25-0290-4AC7-B59A-30D2B50D2D2F}"/>
-    <hyperlink ref="C201" r:id="rId126" xr:uid="{7D51638F-1F03-49A7-A075-84A04C2CFE2D}"/>
-    <hyperlink ref="C210" r:id="rId127" xr:uid="{C39008FB-02C5-48AF-BE12-B17CAA869847}"/>
-    <hyperlink ref="B142" r:id="rId128" tooltip="Unitialized Library" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Unitialized Library" xr:uid="{25DDBF4A-AE37-46C3-AD92-70D4553E876C}"/>
-    <hyperlink ref="B190" r:id="rId129" tooltip="Tx.origin Authentication" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Tx.origin Authentication" xr:uid="{E68CC045-44F7-402F-92E2-CE169BFECB59}"/>
-    <hyperlink ref="B99" r:id="rId130" tooltip="Short Address Attack" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Short Address Attack" xr:uid="{67637E28-05AA-42CD-B40C-E2B185F9D5EF}"/>
-    <hyperlink ref="B54" r:id="rId131" tooltip="Reentrancy" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Reentrancy" xr:uid="{6A0E555B-4EE3-45D8-A01E-209CFC6C50E5}"/>
-    <hyperlink ref="B43" r:id="rId132" tooltip="RTLO Character" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/RTLO Character" xr:uid="{544AEC55-A850-4D02-8B9F-3A2A69A07ACD}"/>
-    <hyperlink ref="B211" r:id="rId133" tooltip="Public Secrecy" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Public Secrecy" xr:uid="{82CFCE92-1DCD-406A-9C30-45774BF41EA0}"/>
-    <hyperlink ref="B40" r:id="rId134" tooltip="Storage Variables to Memory" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Storage Variables to Memory" xr:uid="{BACD8456-C1DD-4D68-97EC-54ED7E94FF84}"/>
-    <hyperlink ref="B174" r:id="rId135" tooltip="Overwriting Arbitrary Storage Variables" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Overwriting Arbitrary Storage Variables" xr:uid="{414DF84C-B6AA-4661-A560-ED8E856039C2}"/>
-    <hyperlink ref="B92" r:id="rId136" tooltip="Overwriting Arbitrary Storage Variables" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Overwriting Arbitrary Storage Variables" xr:uid="{9F7AB579-D3E8-4148-A075-69434D315B50}"/>
-    <hyperlink ref="B13" r:id="rId137" tooltip="Integer Overflow and Underflow" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Integer Overflow and Underflow" xr:uid="{25584286-7973-434F-B901-8D84826D7BBC}"/>
-    <hyperlink ref="B59" r:id="rId138" tooltip="Front Running" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Front Running" xr:uid="{002DFB0A-FB6D-4E53-B80E-BC9C3C38F714}"/>
-    <hyperlink ref="B79" r:id="rId139" tooltip="Forcing Ether" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Forcing Ether" xr:uid="{9FB1BB18-33F1-47E5-92B0-2EA88729ABE4}"/>
-    <hyperlink ref="B3" r:id="rId140" tooltip="Floating Points" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Floating Points" xr:uid="{7BF374B9-308A-4368-BA4C-B89F1B75F031}"/>
-    <hyperlink ref="B143" r:id="rId141" tooltip="External Referencing" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/External Referencing" xr:uid="{4A04F0EF-0F95-4B25-8CB8-0E13EBBA1877}"/>
-    <hyperlink ref="B127" r:id="rId142" tooltip="Exceeding Block Gas Limit" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Exceeding Block Gas Limit" xr:uid="{F6CE739D-758C-4348-B4D4-4507E0FB95D2}"/>
-    <hyperlink ref="B140" r:id="rId143" tooltip="Denial of Service" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Denial of Service" xr:uid="{7CE2D6FF-4DAD-48A4-8094-F6174E174763}"/>
-    <hyperlink ref="C3" r:id="rId144" xr:uid="{12F8481C-077C-4499-8B36-421740771B87}"/>
-    <hyperlink ref="C13" r:id="rId145" xr:uid="{63BF0B76-E84C-4A93-B1B0-EB90D4D9DF6D}"/>
-    <hyperlink ref="C40" r:id="rId146" xr:uid="{36943CDD-B989-47F5-8842-C69E77CCD884}"/>
-    <hyperlink ref="C43" r:id="rId147" xr:uid="{E864A4DE-63E1-49F4-AD0E-953958A7BBD6}"/>
-    <hyperlink ref="C54" r:id="rId148" xr:uid="{FD123E44-00B6-4B1D-B591-161BA76D775D}"/>
-    <hyperlink ref="C59" r:id="rId149" xr:uid="{66AA856F-76D5-4507-AC19-2E522809145E}"/>
-    <hyperlink ref="C79" r:id="rId150" xr:uid="{2705C4B1-2106-48EF-B869-69733478D36D}"/>
-    <hyperlink ref="C92" r:id="rId151" xr:uid="{0B048E0B-60B6-42F9-B0C0-0E049F660D51}"/>
-    <hyperlink ref="C99" r:id="rId152" xr:uid="{CFF1F393-A500-4661-9558-C3F8CF4B4992}"/>
-    <hyperlink ref="C127" r:id="rId153" xr:uid="{0B6F2E3E-3075-4ED7-AD97-DEB27D6540AC}"/>
-    <hyperlink ref="C140" r:id="rId154" xr:uid="{B4D9C2C7-D909-4981-ABAB-F74581AB63B2}"/>
-    <hyperlink ref="C142" r:id="rId155" xr:uid="{C7C305D6-9B01-4664-9265-21329E1CA6AC}"/>
-    <hyperlink ref="C143" r:id="rId156" xr:uid="{129AB40C-AC7B-4D88-8689-0F47D588DBAF}"/>
-    <hyperlink ref="C174" r:id="rId157" xr:uid="{D77A0914-A721-4996-A97C-5C009C45E41C}"/>
-    <hyperlink ref="C190" r:id="rId158" xr:uid="{842349C2-54BC-4ED5-8A93-40D95D931BD7}"/>
-    <hyperlink ref="C211" r:id="rId159" xr:uid="{D71D999C-A5B0-4CFC-8B90-37EC1EF033A6}"/>
-    <hyperlink ref="B157" r:id="rId160" tooltip="This path skips through empty directories" display="https://github.com/mahyarx/Smart-Contract-Vulnerabilities/tree/master/bad_randomness/theRun_source_code" xr:uid="{11C41238-7E48-488D-8E77-7A72E607C95D}"/>
-    <hyperlink ref="B137" r:id="rId161" tooltip="denial_of_service" display="https://github.com/mahyarx/Smart-Contract-Vulnerabilities/tree/master/denial_of_service" xr:uid="{37E93AF9-6FDC-4F61-AB8C-915785B3ADED}"/>
-    <hyperlink ref="B78" r:id="rId162" tooltip="forced_ether_reception" display="https://github.com/mahyarx/Smart-Contract-Vulnerabilities/tree/master/forced_ether_reception" xr:uid="{20CE23C6-B0B4-4852-9184-CE372AE5751C}"/>
-    <hyperlink ref="B108" r:id="rId163" tooltip="incorrect_interface" display="https://github.com/mahyarx/Smart-Contract-Vulnerabilities/tree/master/incorrect_interface" xr:uid="{FE037E45-1A25-4F4D-B10F-9D8FB5EC0D1C}"/>
-    <hyperlink ref="C103" r:id="rId164" xr:uid="{492B9DFB-28E2-4F09-97FC-EA2EE9F8FC65}"/>
-    <hyperlink ref="B19" r:id="rId165" tooltip="integer_overflow" display="https://github.com/mahyarx/Smart-Contract-Vulnerabilities/tree/master/integer_overflow" xr:uid="{42089201-559F-4AA2-AA30-5EFE9C408D4D}"/>
-    <hyperlink ref="B168" r:id="rId166" tooltip="race_condition" display="https://github.com/mahyarx/Smart-Contract-Vulnerabilities/tree/master/race_condition" xr:uid="{95FCFF87-BCB0-442A-BABF-FDFAAAEBFB77}"/>
-    <hyperlink ref="B55" r:id="rId167" tooltip="reentrancy" display="https://github.com/mahyarx/Smart-Contract-Vulnerabilities/tree/master/reentrancy" xr:uid="{564E3339-E5CC-4DA9-BA4E-5414A0F3A1A6}"/>
-    <hyperlink ref="B69" r:id="rId168" tooltip="This path skips through empty directories" display="https://github.com/mahyarx/Smart-Contract-Vulnerabilities/tree/master/unchecked_external_call/KotET_source_code" xr:uid="{4103282A-E27F-4635-BDAB-73A5B0D85091}"/>
-    <hyperlink ref="B185" r:id="rId169" tooltip="unprotected_function" display="https://github.com/mahyarx/Smart-Contract-Vulnerabilities/tree/master/unprotected_function" xr:uid="{8AB74012-EC99-4FFE-97B7-6EF280BAB959}"/>
-    <hyperlink ref="B35" r:id="rId170" tooltip="variable shadowing" display="https://github.com/mahyarx/Smart-Contract-Vulnerabilities/tree/master/variable shadowing" xr:uid="{279A5D59-44B6-4135-B2B7-11FB775BC875}"/>
-    <hyperlink ref="B200" r:id="rId171" tooltip="wrong_constructor_name" display="https://github.com/mahyarx/Smart-Contract-Vulnerabilities/tree/master/wrong_constructor_name" xr:uid="{07920008-80C8-4F0A-812E-82D73ABF16D4}"/>
-    <hyperlink ref="C19" r:id="rId172" xr:uid="{F015425D-D4FA-43A7-888C-66F39C7389B6}"/>
-    <hyperlink ref="C35" r:id="rId173" xr:uid="{3907D4B8-5BF8-4CEB-94E9-A5E21BB4EA0F}"/>
-    <hyperlink ref="C55" r:id="rId174" xr:uid="{C394B085-10F4-4E0F-9ABA-FF3155F8A5CB}"/>
-    <hyperlink ref="C69" r:id="rId175" xr:uid="{8F3474F2-99AE-4A77-AE39-0596D2A44B48}"/>
-    <hyperlink ref="C78" r:id="rId176" xr:uid="{92B24A0C-4125-4842-AF19-7E98E9368695}"/>
-    <hyperlink ref="C108" r:id="rId177" xr:uid="{3F94EFD0-76C9-4258-87F5-75AC9911D399}"/>
-    <hyperlink ref="C137" r:id="rId178" xr:uid="{2871E5DE-B5F0-4433-B28B-9D8A9AE7D489}"/>
-    <hyperlink ref="C157" r:id="rId179" xr:uid="{BFBC5CFF-0F5F-49B5-85B5-677B6FA6E49F}"/>
-    <hyperlink ref="C168" r:id="rId180" xr:uid="{BB7574CF-5258-4DC9-BCB5-BF11496F88BB}"/>
-    <hyperlink ref="C185" r:id="rId181" xr:uid="{05978E36-3A83-462A-AC8C-5B81C3DB437A}"/>
-    <hyperlink ref="C200" r:id="rId182" xr:uid="{C4F3C180-6E2D-4FE5-BD2F-45A74B7B318F}"/>
-    <hyperlink ref="B156" r:id="rId183" tooltip="bad-randomness.sol" display="https://github.com/TEAM-C4B/Smart-Contract-Vuln-Mitigation/blob/master/bad-randomness.sol" xr:uid="{785E4887-BAB8-4F16-BFC1-D7665ABB1BA6}"/>
-    <hyperlink ref="B16" r:id="rId184" tooltip="integer-overflow.sol" display="https://github.com/TEAM-C4B/Smart-Contract-Vuln-Mitigation/blob/master/integer-overflow.sol" xr:uid="{A53F9E20-AC26-4FD8-8E30-01ABF071E842}"/>
-    <hyperlink ref="B58" r:id="rId185" tooltip="re-entrancy.sol" display="https://github.com/TEAM-C4B/Smart-Contract-Vuln-Mitigation/blob/master/re-entrancy.sol" xr:uid="{39A88453-2E2B-423E-918A-DBA5AA1320ED}"/>
-    <hyperlink ref="B98" r:id="rId186" tooltip="short-address-attack.sol" display="https://github.com/TEAM-C4B/Smart-Contract-Vuln-Mitigation/blob/master/short-address-attack.sol" xr:uid="{F4DD7E18-2D63-4DA5-BB9C-112C0AFDBADA}"/>
-    <hyperlink ref="C98" r:id="rId187" xr:uid="{1267BD7C-0175-4FC8-BF70-CFCE5A846D1A}"/>
-    <hyperlink ref="C16" r:id="rId188" xr:uid="{55D6530A-4A74-4A01-B914-438A7E7F2FC9}"/>
-    <hyperlink ref="C156" r:id="rId189" xr:uid="{218A5A79-A87E-4A6C-BC94-909E8DAD9F73}"/>
-    <hyperlink ref="B14" r:id="rId190" tooltip="integer-overflow.sol" display="https://github.com/tr0y-kim/Smart-Contract-Vuln-Mitigation/blob/master/integer-overflow.sol" xr:uid="{E5670DFA-131B-45CA-B348-E3D2DAC6EE64}"/>
-    <hyperlink ref="B97" r:id="rId191" tooltip="short-address-attack.sol" display="https://github.com/tr0y-kim/Smart-Contract-Vuln-Mitigation/blob/master/short-address-attack.sol" xr:uid="{3FF6B160-3AB5-4A92-AFAB-AB361A5327A8}"/>
-    <hyperlink ref="C97" r:id="rId192" xr:uid="{8EEC4DDD-37AC-4B6F-8F71-1ECFEADAA5A7}"/>
-    <hyperlink ref="C14" r:id="rId193" xr:uid="{6E77B265-BB26-4847-BEDC-75FB39297900}"/>
-    <hyperlink ref="C60" r:id="rId194" xr:uid="{87D2C14A-F2E1-4776-9131-71877BB1309C}"/>
-    <hyperlink ref="C52" r:id="rId195" xr:uid="{DE7DC625-734A-4CC5-88CF-A608B299BF75}"/>
-    <hyperlink ref="B57" r:id="rId196" tooltip="reentrancy" display="https://github.com/Messi-Q/GGNNSmartVulDetector/tree/master/train_data/reentrancy" xr:uid="{035AF8A3-9224-4DF8-A32D-E2570A530A2C}"/>
-    <hyperlink ref="B125" r:id="rId197" tooltip="infinite_loop" display="https://github.com/Messi-Q/GGNNSmartVulDetector/tree/master/train_data/infinite_loop" xr:uid="{5B997715-1E0C-4AC3-BFD7-019014DCF2B1}"/>
-    <hyperlink ref="C125" r:id="rId198" xr:uid="{99450AFC-108B-4469-B128-B88334572750}"/>
-    <hyperlink ref="C57" r:id="rId199" xr:uid="{B41809F9-EC13-4DC1-9923-B8F3F7160F66}"/>
-    <hyperlink ref="C58" r:id="rId200" xr:uid="{B032FE9C-13CC-472E-BC5E-C33B418E4A90}"/>
-    <hyperlink ref="B10" r:id="rId201" tooltip="Bank.sol" display="https://github.com/Ceesvanwijk/vulnerable-bank/blob/master/Bank.sol" xr:uid="{909FC484-1899-485F-8117-50540208D1C5}"/>
-    <hyperlink ref="C10" r:id="rId202" xr:uid="{16933653-3CC8-41E9-A22E-A43311F756DC}"/>
-    <hyperlink ref="C53" r:id="rId203" xr:uid="{A3FB70CB-F9DD-4B69-BC85-18D143C4DF52}"/>
-    <hyperlink ref="C17" r:id="rId204" xr:uid="{24489BD9-B6CD-45CA-87D3-88738AB04641}"/>
-    <hyperlink ref="C15" r:id="rId205" xr:uid="{AC1669AA-DBB7-4E8D-8AC6-3C2FDE409D88}"/>
-    <hyperlink ref="C126" r:id="rId206" xr:uid="{161553AE-8BEF-44C6-A185-B53E0CBECFFD}"/>
-    <hyperlink ref="C138" r:id="rId207" xr:uid="{D64009EA-4DB7-4026-B149-A34E31E7DB6F}"/>
-    <hyperlink ref="C155" r:id="rId208" xr:uid="{A94DB12C-4D00-406D-834C-27CCDAD9ED5D}"/>
-    <hyperlink ref="C165" r:id="rId209" xr:uid="{CE9AAC93-4509-4AAA-BE04-059555D3F6D0}"/>
-    <hyperlink ref="C166" r:id="rId210" xr:uid="{75416904-14A3-47D4-88FC-9A563DF96D4C}"/>
-    <hyperlink ref="C49" r:id="rId211" xr:uid="{1752A754-B6B3-414A-BCE6-5F48839B21A5}"/>
-    <hyperlink ref="C48" r:id="rId212" xr:uid="{52BFA615-188C-46B5-94E6-7BA4490706D3}"/>
-    <hyperlink ref="C70" r:id="rId213" xr:uid="{771E8A58-7F98-46BC-850E-E210CA4CF512}"/>
-    <hyperlink ref="C85" r:id="rId214" xr:uid="{D6A5F07F-6744-4CA8-A9E0-E3563A0169C5}"/>
-    <hyperlink ref="C167" r:id="rId215" xr:uid="{3C08DF47-94FC-41C4-BD7A-A0C7213B7B65}"/>
-    <hyperlink ref="C195" r:id="rId216" xr:uid="{E2B5C3F8-FD1B-4BA3-9411-40C41E67DD3C}"/>
+    <hyperlink ref="C54" r:id="rId114" xr:uid="{0B35A52E-C845-4BD5-8E20-C620CC57C9CE}"/>
+    <hyperlink ref="C51" r:id="rId115" xr:uid="{71295A37-B187-4134-8462-7F7CA649DA5E}"/>
+    <hyperlink ref="C90" r:id="rId116" xr:uid="{B6B2EB0D-9721-4F3B-942A-8FAF98E31156}"/>
+    <hyperlink ref="C98" r:id="rId117" xr:uid="{097B30CF-6A08-4390-95EC-C7EDCEB18A64}"/>
+    <hyperlink ref="C153" r:id="rId118" xr:uid="{3358C9B8-274C-46E0-83D3-375B032D94AD}"/>
+    <hyperlink ref="C170" r:id="rId119" xr:uid="{BC641D82-B74F-4A31-87CE-6735A2D9D773}"/>
+    <hyperlink ref="C174" r:id="rId120" xr:uid="{8A28C9DB-E284-4D1E-8844-A9BCF38AA5A0}"/>
+    <hyperlink ref="C198" r:id="rId121" xr:uid="{974205A1-5396-4B2F-9CCE-F2A57B4D0F4B}"/>
+    <hyperlink ref="C212" r:id="rId122" xr:uid="{BD1354DA-E447-42FE-8E1B-2466E53CA9B6}"/>
+    <hyperlink ref="C239" r:id="rId123" xr:uid="{9769D23A-468E-4760-BFB1-B98F2B634283}"/>
+    <hyperlink ref="C229" r:id="rId124" xr:uid="{42623327-8EDD-4C9B-BE3E-2C689795CA08}"/>
+    <hyperlink ref="C272" r:id="rId125" xr:uid="{84933E25-0290-4AC7-B59A-30D2B50D2D2F}"/>
+    <hyperlink ref="C284" r:id="rId126" xr:uid="{7D51638F-1F03-49A7-A075-84A04C2CFE2D}"/>
+    <hyperlink ref="C294" r:id="rId127" xr:uid="{C39008FB-02C5-48AF-BE12-B17CAA869847}"/>
+    <hyperlink ref="B201" r:id="rId128" tooltip="Unitialized Library" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Unitialized Library" xr:uid="{25DDBF4A-AE37-46C3-AD92-70D4553E876C}"/>
+    <hyperlink ref="B145" r:id="rId129" tooltip="Short Address Attack" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Short Address Attack" xr:uid="{67637E28-05AA-42CD-B40C-E2B185F9D5EF}"/>
+    <hyperlink ref="B83" r:id="rId130" tooltip="Reentrancy" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Reentrancy" xr:uid="{6A0E555B-4EE3-45D8-A01E-209CFC6C50E5}"/>
+    <hyperlink ref="B60" r:id="rId131" tooltip="RTLO Character" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/RTLO Character" xr:uid="{544AEC55-A850-4D02-8B9F-3A2A69A07ACD}"/>
+    <hyperlink ref="B295" r:id="rId132" tooltip="Public Secrecy" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Public Secrecy" xr:uid="{82CFCE92-1DCD-406A-9C30-45774BF41EA0}"/>
+    <hyperlink ref="B52" r:id="rId133" tooltip="Storage Variables to Memory" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Storage Variables to Memory" xr:uid="{BACD8456-C1DD-4D68-97EC-54ED7E94FF84}"/>
+    <hyperlink ref="B247" r:id="rId134" tooltip="Overwriting Arbitrary Storage Variables" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Overwriting Arbitrary Storage Variables" xr:uid="{414DF84C-B6AA-4661-A560-ED8E856039C2}"/>
+    <hyperlink ref="B133" r:id="rId135" tooltip="Overwriting Arbitrary Storage Variables" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Overwriting Arbitrary Storage Variables" xr:uid="{9F7AB579-D3E8-4148-A075-69434D315B50}"/>
+    <hyperlink ref="B14" r:id="rId136" tooltip="Integer Overflow and Underflow" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Integer Overflow and Underflow" xr:uid="{25584286-7973-434F-B901-8D84826D7BBC}"/>
+    <hyperlink ref="B88" r:id="rId137" tooltip="Front Running" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Front Running" xr:uid="{002DFB0A-FB6D-4E53-B80E-BC9C3C38F714}"/>
+    <hyperlink ref="B3" r:id="rId138" tooltip="Floating Points" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Floating Points" xr:uid="{7BF374B9-308A-4368-BA4C-B89F1B75F031}"/>
+    <hyperlink ref="B202" r:id="rId139" tooltip="External Referencing" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/External Referencing" xr:uid="{4A04F0EF-0F95-4B25-8CB8-0E13EBBA1877}"/>
+    <hyperlink ref="B179" r:id="rId140" tooltip="Exceeding Block Gas Limit" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Exceeding Block Gas Limit" xr:uid="{F6CE739D-758C-4348-B4D4-4507E0FB95D2}"/>
+    <hyperlink ref="B199" r:id="rId141" tooltip="Denial of Service" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Denial of Service" xr:uid="{7CE2D6FF-4DAD-48A4-8094-F6174E174763}"/>
+    <hyperlink ref="C3" r:id="rId142" xr:uid="{12F8481C-077C-4499-8B36-421740771B87}"/>
+    <hyperlink ref="C14" r:id="rId143" xr:uid="{63BF0B76-E84C-4A93-B1B0-EB90D4D9DF6D}"/>
+    <hyperlink ref="C52" r:id="rId144" xr:uid="{36943CDD-B989-47F5-8842-C69E77CCD884}"/>
+    <hyperlink ref="C60" r:id="rId145" xr:uid="{E864A4DE-63E1-49F4-AD0E-953958A7BBD6}"/>
+    <hyperlink ref="C83" r:id="rId146" xr:uid="{FD123E44-00B6-4B1D-B591-161BA76D775D}"/>
+    <hyperlink ref="C88" r:id="rId147" xr:uid="{66AA856F-76D5-4507-AC19-2E522809145E}"/>
+    <hyperlink ref="C119" r:id="rId148" xr:uid="{2705C4B1-2106-48EF-B869-69733478D36D}"/>
+    <hyperlink ref="C133" r:id="rId149" xr:uid="{0B048E0B-60B6-42F9-B0C0-0E049F660D51}"/>
+    <hyperlink ref="C145" r:id="rId150" xr:uid="{CFF1F393-A500-4661-9558-C3F8CF4B4992}"/>
+    <hyperlink ref="C179" r:id="rId151" xr:uid="{0B6F2E3E-3075-4ED7-AD97-DEB27D6540AC}"/>
+    <hyperlink ref="C199" r:id="rId152" xr:uid="{B4D9C2C7-D909-4981-ABAB-F74581AB63B2}"/>
+    <hyperlink ref="C201" r:id="rId153" xr:uid="{C7C305D6-9B01-4664-9265-21329E1CA6AC}"/>
+    <hyperlink ref="C202" r:id="rId154" xr:uid="{129AB40C-AC7B-4D88-8689-0F47D588DBAF}"/>
+    <hyperlink ref="C247" r:id="rId155" xr:uid="{D77A0914-A721-4996-A97C-5C009C45E41C}"/>
+    <hyperlink ref="C270" r:id="rId156" xr:uid="{842349C2-54BC-4ED5-8A93-40D95D931BD7}"/>
+    <hyperlink ref="C295" r:id="rId157" xr:uid="{D71D999C-A5B0-4CFC-8B90-37EC1EF033A6}"/>
+    <hyperlink ref="B222" r:id="rId158" tooltip="This path skips through empty directories" display="https://github.com/mahyarx/Smart-Contract-Vulnerabilities/tree/master/bad_randomness/theRun_source_code" xr:uid="{11C41238-7E48-488D-8E77-7A72E607C95D}"/>
+    <hyperlink ref="B115" r:id="rId159" tooltip="forced_ether_reception" display="https://github.com/mahyarx/Smart-Contract-Vulnerabilities/tree/master/forced_ether_reception" xr:uid="{20CE23C6-B0B4-4852-9184-CE372AE5751C}"/>
+    <hyperlink ref="B155" r:id="rId160" tooltip="incorrect_interface" display="https://github.com/mahyarx/Smart-Contract-Vulnerabilities/tree/master/incorrect_interface" xr:uid="{FE037E45-1A25-4F4D-B10F-9D8FB5EC0D1C}"/>
+    <hyperlink ref="C149" r:id="rId161" xr:uid="{492B9DFB-28E2-4F09-97FC-EA2EE9F8FC65}"/>
+    <hyperlink ref="B26" r:id="rId162" tooltip="integer_overflow" display="https://github.com/mahyarx/Smart-Contract-Vulnerabilities/tree/master/integer_overflow" xr:uid="{42089201-559F-4AA2-AA30-5EFE9C408D4D}"/>
+    <hyperlink ref="B235" r:id="rId163" tooltip="race_condition" display="https://github.com/mahyarx/Smart-Contract-Vulnerabilities/tree/master/race_condition" xr:uid="{95FCFF87-BCB0-442A-BABF-FDFAAAEBFB77}"/>
+    <hyperlink ref="B84" r:id="rId164" tooltip="reentrancy" display="https://github.com/mahyarx/Smart-Contract-Vulnerabilities/tree/master/reentrancy" xr:uid="{564E3339-E5CC-4DA9-BA4E-5414A0F3A1A6}"/>
+    <hyperlink ref="B264" r:id="rId165" tooltip="unprotected_function" display="https://github.com/mahyarx/Smart-Contract-Vulnerabilities/tree/master/unprotected_function" xr:uid="{8AB74012-EC99-4FFE-97B7-6EF280BAB959}"/>
+    <hyperlink ref="B282" r:id="rId166" tooltip="wrong_constructor_name" display="https://github.com/mahyarx/Smart-Contract-Vulnerabilities/tree/master/wrong_constructor_name" xr:uid="{07920008-80C8-4F0A-812E-82D73ABF16D4}"/>
+    <hyperlink ref="C26" r:id="rId167" xr:uid="{F015425D-D4FA-43A7-888C-66F39C7389B6}"/>
+    <hyperlink ref="C44" r:id="rId168" xr:uid="{3907D4B8-5BF8-4CEB-94E9-A5E21BB4EA0F}"/>
+    <hyperlink ref="C84" r:id="rId169" xr:uid="{C394B085-10F4-4E0F-9ABA-FF3155F8A5CB}"/>
+    <hyperlink ref="C106" r:id="rId170" xr:uid="{8F3474F2-99AE-4A77-AE39-0596D2A44B48}"/>
+    <hyperlink ref="C115" r:id="rId171" xr:uid="{92B24A0C-4125-4842-AF19-7E98E9368695}"/>
+    <hyperlink ref="C155" r:id="rId172" xr:uid="{3F94EFD0-76C9-4258-87F5-75AC9911D399}"/>
+    <hyperlink ref="C196" r:id="rId173" xr:uid="{2871E5DE-B5F0-4433-B28B-9D8A9AE7D489}"/>
+    <hyperlink ref="C222" r:id="rId174" xr:uid="{BFBC5CFF-0F5F-49B5-85B5-677B6FA6E49F}"/>
+    <hyperlink ref="C235" r:id="rId175" xr:uid="{BB7574CF-5258-4DC9-BCB5-BF11496F88BB}"/>
+    <hyperlink ref="C264" r:id="rId176" xr:uid="{05978E36-3A83-462A-AC8C-5B81C3DB437A}"/>
+    <hyperlink ref="C282" r:id="rId177" xr:uid="{C4F3C180-6E2D-4FE5-BD2F-45A74B7B318F}"/>
+    <hyperlink ref="B220" r:id="rId178" tooltip="bad-randomness.sol" display="https://github.com/TEAM-C4B/Smart-Contract-Vuln-Mitigation/blob/master/bad-randomness.sol" xr:uid="{785E4887-BAB8-4F16-BFC1-D7665ABB1BA6}"/>
+    <hyperlink ref="B23" r:id="rId179" tooltip="integer-overflow.sol" display="https://github.com/TEAM-C4B/Smart-Contract-Vuln-Mitigation/blob/master/integer-overflow.sol" xr:uid="{A53F9E20-AC26-4FD8-8E30-01ABF071E842}"/>
+    <hyperlink ref="B87" r:id="rId180" tooltip="re-entrancy.sol" display="https://github.com/TEAM-C4B/Smart-Contract-Vuln-Mitigation/blob/master/re-entrancy.sol" xr:uid="{39A88453-2E2B-423E-918A-DBA5AA1320ED}"/>
+    <hyperlink ref="B143" r:id="rId181" tooltip="short-address-attack.sol" display="https://github.com/TEAM-C4B/Smart-Contract-Vuln-Mitigation/blob/master/short-address-attack.sol" xr:uid="{F4DD7E18-2D63-4DA5-BB9C-112C0AFDBADA}"/>
+    <hyperlink ref="C143" r:id="rId182" xr:uid="{1267BD7C-0175-4FC8-BF70-CFCE5A846D1A}"/>
+    <hyperlink ref="C23" r:id="rId183" xr:uid="{55D6530A-4A74-4A01-B914-438A7E7F2FC9}"/>
+    <hyperlink ref="C220" r:id="rId184" xr:uid="{218A5A79-A87E-4A6C-BC94-909E8DAD9F73}"/>
+    <hyperlink ref="B15" r:id="rId185" tooltip="integer-overflow.sol" display="https://github.com/tr0y-kim/Smart-Contract-Vuln-Mitigation/blob/master/integer-overflow.sol" xr:uid="{E5670DFA-131B-45CA-B348-E3D2DAC6EE64}"/>
+    <hyperlink ref="B142" r:id="rId186" tooltip="short-address-attack.sol" display="https://github.com/tr0y-kim/Smart-Contract-Vuln-Mitigation/blob/master/short-address-attack.sol" xr:uid="{3FF6B160-3AB5-4A92-AFAB-AB361A5327A8}"/>
+    <hyperlink ref="C142" r:id="rId187" xr:uid="{8EEC4DDD-37AC-4B6F-8F71-1ECFEADAA5A7}"/>
+    <hyperlink ref="C15" r:id="rId188" xr:uid="{6E77B265-BB26-4847-BEDC-75FB39297900}"/>
+    <hyperlink ref="C89" r:id="rId189" xr:uid="{87D2C14A-F2E1-4776-9131-71877BB1309C}"/>
+    <hyperlink ref="C81" r:id="rId190" xr:uid="{DE7DC625-734A-4CC5-88CF-A608B299BF75}"/>
+    <hyperlink ref="B86" r:id="rId191" tooltip="reentrancy" display="https://github.com/Messi-Q/GGNNSmartVulDetector/tree/master/train_data/reentrancy" xr:uid="{035AF8A3-9224-4DF8-A32D-E2570A530A2C}"/>
+    <hyperlink ref="B175" r:id="rId192" tooltip="infinite_loop" display="https://github.com/Messi-Q/GGNNSmartVulDetector/tree/master/train_data/infinite_loop" xr:uid="{5B997715-1E0C-4AC3-BFD7-019014DCF2B1}"/>
+    <hyperlink ref="C175" r:id="rId193" xr:uid="{99450AFC-108B-4469-B128-B88334572750}"/>
+    <hyperlink ref="C86" r:id="rId194" xr:uid="{B41809F9-EC13-4DC1-9923-B8F3F7160F66}"/>
+    <hyperlink ref="C87" r:id="rId195" xr:uid="{B032FE9C-13CC-472E-BC5E-C33B418E4A90}"/>
+    <hyperlink ref="B10" r:id="rId196" tooltip="Bank.sol" display="https://github.com/Ceesvanwijk/vulnerable-bank/blob/master/Bank.sol" xr:uid="{909FC484-1899-485F-8117-50540208D1C5}"/>
+    <hyperlink ref="C10" r:id="rId197" xr:uid="{16933653-3CC8-41E9-A22E-A43311F756DC}"/>
+    <hyperlink ref="C82" r:id="rId198" xr:uid="{A3FB70CB-F9DD-4B69-BC85-18D143C4DF52}"/>
+    <hyperlink ref="C24" r:id="rId199" xr:uid="{24489BD9-B6CD-45CA-87D3-88738AB04641}"/>
+    <hyperlink ref="C22" r:id="rId200" xr:uid="{AC1669AA-DBB7-4E8D-8AC6-3C2FDE409D88}"/>
+    <hyperlink ref="C177" r:id="rId201" xr:uid="{161553AE-8BEF-44C6-A185-B53E0CBECFFD}"/>
+    <hyperlink ref="C197" r:id="rId202" xr:uid="{D64009EA-4DB7-4026-B149-A34E31E7DB6F}"/>
+    <hyperlink ref="C219" r:id="rId203" xr:uid="{A94DB12C-4D00-406D-834C-27CCDAD9ED5D}"/>
+    <hyperlink ref="C230" r:id="rId204" xr:uid="{CE9AAC93-4509-4AAA-BE04-059555D3F6D0}"/>
+    <hyperlink ref="C231" r:id="rId205" xr:uid="{75416904-14A3-47D4-88FC-9A563DF96D4C}"/>
+    <hyperlink ref="C74" r:id="rId206" xr:uid="{1752A754-B6B3-414A-BCE6-5F48839B21A5}"/>
+    <hyperlink ref="C72" r:id="rId207" xr:uid="{52BFA615-188C-46B5-94E6-7BA4490706D3}"/>
+    <hyperlink ref="C107" r:id="rId208" xr:uid="{771E8A58-7F98-46BC-850E-E210CA4CF512}"/>
+    <hyperlink ref="C126" r:id="rId209" xr:uid="{D6A5F07F-6744-4CA8-A9E0-E3563A0169C5}"/>
+    <hyperlink ref="C233" r:id="rId210" xr:uid="{3C08DF47-94FC-41C4-BD7A-A0C7213B7B65}"/>
+    <hyperlink ref="C276" r:id="rId211" xr:uid="{E2B5C3F8-FD1B-4BA3-9411-40C41E67DD3C}"/>
+    <hyperlink ref="B106" r:id="rId212" tooltip="This path skips through empty directories" display="https://github.com/mahyarx/Smart-Contract-Vulnerabilities/tree/master/unchecked_external_call/KotET_source_code" xr:uid="{4103282A-E27F-4635-BDAB-73A5B0D85091}"/>
+    <hyperlink ref="B196" r:id="rId213" tooltip="denial_of_service" display="https://github.com/mahyarx/Smart-Contract-Vulnerabilities/tree/master/denial_of_service" xr:uid="{37E93AF9-6FDC-4F61-AB8C-915785B3ADED}"/>
+    <hyperlink ref="B270" r:id="rId214" tooltip="Tx.origin Authentication" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Tx.origin Authentication" xr:uid="{E68CC045-44F7-402F-92E2-CE169BFECB59}"/>
+    <hyperlink ref="B44" r:id="rId215" tooltip="variable shadowing" display="https://github.com/mahyarx/Smart-Contract-Vulnerabilities/tree/master/variable shadowing" xr:uid="{279A5D59-44B6-4135-B2B7-11FB775BC875}"/>
+    <hyperlink ref="B119" r:id="rId216" tooltip="Forcing Ether" display="https://github.com/iuwqyir/Smart-Contract-Vulnerabilities/tree/master/Forcing Ether" xr:uid="{9FB1BB18-33F1-47E5-92B0-2EA88729ABE4}"/>
+    <hyperlink ref="C321" r:id="rId217" xr:uid="{59AF67A0-EDCA-4B85-867D-E660B3E2DC17}"/>
+    <hyperlink ref="C323" r:id="rId218" xr:uid="{30904B83-1250-4BE1-9D1F-B2A173C9DA56}"/>
+    <hyperlink ref="C314" r:id="rId219" xr:uid="{B989A27C-0DC6-47C2-B378-EF7C9351987F}"/>
+    <hyperlink ref="C308" r:id="rId220" xr:uid="{7503B3CA-DE6A-447B-8B03-431D12CF53E1}"/>
+    <hyperlink ref="C303" r:id="rId221" xr:uid="{9E33FEB2-FFB0-4BDD-8ABB-24014D82D083}"/>
+    <hyperlink ref="C301" r:id="rId222" xr:uid="{867E49A0-1010-448A-A00E-F8AD2C1641AC}"/>
+    <hyperlink ref="C283" r:id="rId223" xr:uid="{406FC5B1-126F-4E99-B297-420742319001}"/>
+    <hyperlink ref="C277" r:id="rId224" xr:uid="{E3619FC0-8E03-4378-9B25-C98925C7F4A6}"/>
+    <hyperlink ref="C269" r:id="rId225" xr:uid="{03DF0189-D862-4C88-8163-88871F0CC422}"/>
+    <hyperlink ref="C262" r:id="rId226" xr:uid="{E44A90A5-C960-4B7E-89B1-B3FC3C62F8EF}"/>
+    <hyperlink ref="C257" r:id="rId227" xr:uid="{B0B2D59E-568E-47A4-AA10-4754BD995EBC}"/>
+    <hyperlink ref="C256" r:id="rId228" xr:uid="{EE92FB65-1707-46BF-946F-40DDC9DF2098}"/>
+    <hyperlink ref="C244" r:id="rId229" xr:uid="{C6203711-43B9-4528-90D6-F382EA1E1520}"/>
+    <hyperlink ref="C236" r:id="rId230" xr:uid="{8D48A1D4-FE42-483D-9518-F661E2061BF8}"/>
+    <hyperlink ref="C221" r:id="rId231" xr:uid="{E5FA8DEA-77D8-497C-8B30-F7ACAF0A5793}"/>
+    <hyperlink ref="C217" r:id="rId232" xr:uid="{142491BF-AB05-4B5C-8E99-215767500548}"/>
+    <hyperlink ref="C192" r:id="rId233" xr:uid="{75755645-724A-4E1B-95EC-6E8418019654}"/>
+    <hyperlink ref="C182" r:id="rId234" xr:uid="{5C043D30-8C35-47CB-9AC0-FB750103B7AE}"/>
+    <hyperlink ref="C181" r:id="rId235" xr:uid="{7DD096B5-F485-47CF-94DE-7792C99CE1B1}"/>
+    <hyperlink ref="C167" r:id="rId236" xr:uid="{6FFCC8B6-2A36-4CED-886F-B9F2EA6A0DBA}"/>
+    <hyperlink ref="C140" r:id="rId237" xr:uid="{1971CFFF-AF6C-4AF5-A067-E2794F01803B}"/>
+    <hyperlink ref="C137" r:id="rId238" xr:uid="{6078D608-E810-4590-A294-731F985035C6}"/>
+    <hyperlink ref="C116" r:id="rId239" xr:uid="{3B6F6A85-3BC5-4429-AE15-24F75F120F03}"/>
+    <hyperlink ref="C105" r:id="rId240" xr:uid="{CF1DBBB8-E06E-4F03-A6D3-A8ACBB5458BF}"/>
+    <hyperlink ref="C80" r:id="rId241" xr:uid="{2E897271-1355-4145-A8AC-1F6FB5F92AAF}"/>
+    <hyperlink ref="C58" r:id="rId242" xr:uid="{501691DB-699E-4878-88F2-74980D63B554}"/>
+    <hyperlink ref="C56" r:id="rId243" xr:uid="{C53B4D1F-1443-4732-B23D-681ECE8D6884}"/>
+    <hyperlink ref="C46" r:id="rId244" xr:uid="{919FB925-FE1A-463B-9DD7-F342179A3E47}"/>
+    <hyperlink ref="C43" r:id="rId245" xr:uid="{F0A70CDD-DBD2-4AA7-A70E-C07334B665E7}"/>
+    <hyperlink ref="C39" r:id="rId246" xr:uid="{DFD38456-3D33-477C-AB63-B54F2A3847FD}"/>
+    <hyperlink ref="C20" r:id="rId247" xr:uid="{667662DE-C5EA-4601-9BE4-8AA891069192}"/>
+    <hyperlink ref="B297" r:id="rId248" display="https://capturetheether.com/challenges/lotteries/guess-the-secret-number/" xr:uid="{359C5493-EDE4-4EC2-A4F4-4F931B821B84}"/>
+    <hyperlink ref="B218" r:id="rId249" display="https://capturetheether.com/challenges/lotteries/guess-the-random-number/" xr:uid="{A70A2AE8-8B6C-4807-8C55-26ECB36078AF}"/>
+    <hyperlink ref="B21" r:id="rId250" display="https://capturetheether.com/challenges/math/token-sale/" xr:uid="{72814A80-936A-40E4-B7A4-987D29AD8602}"/>
+    <hyperlink ref="B16" r:id="rId251" display="https://capturetheether.com/challenges/math/token-whale/" xr:uid="{E6549140-3AEC-41D0-875C-D4B2BECACF17}"/>
+    <hyperlink ref="B285" r:id="rId252" display="https://capturetheether.com/challenges/miscellaneous/assume-ownership/" xr:uid="{02AD2795-D20E-45E1-82EA-D5F5E7FD82C5}"/>
+    <hyperlink ref="C16" r:id="rId253" xr:uid="{4438EEC0-CDB6-4573-90F9-C628F90F687D}"/>
+    <hyperlink ref="C21" r:id="rId254" xr:uid="{ADA3543D-4B96-4717-8918-48BA0276A3E6}"/>
+    <hyperlink ref="C218" r:id="rId255" xr:uid="{AB1F145D-94E5-4132-93C8-5C99B16846C1}"/>
+    <hyperlink ref="C245" r:id="rId256" xr:uid="{D35007BE-7485-4306-A041-91D9F5AADDDD}"/>
+    <hyperlink ref="C246" r:id="rId257" xr:uid="{FD170FC8-1D5E-4F50-B774-0C323E95837C}"/>
+    <hyperlink ref="C285" r:id="rId258" xr:uid="{CDB8E82F-789F-4FD0-B964-4F5350E85147}"/>
+    <hyperlink ref="C297" r:id="rId259" xr:uid="{2A10FC34-8583-40B6-9AE8-33832EC92E3A}"/>
+    <hyperlink ref="C55" r:id="rId260" xr:uid="{5FB46336-4642-42DC-8B23-1DDA0B93E96E}"/>
+    <hyperlink ref="C75" r:id="rId261" xr:uid="{D886D74E-558E-454C-957A-E1B1E5398CA3}"/>
+    <hyperlink ref="C99" r:id="rId262" xr:uid="{4C5550F4-513D-4D55-AB98-83C4430721F6}"/>
+    <hyperlink ref="C104" r:id="rId263" xr:uid="{7AC991A7-C8CB-4DD2-9942-C49F3A709F4B}"/>
+    <hyperlink ref="C178" r:id="rId264" xr:uid="{1CB365A8-9555-4D86-ACFC-B019FA4EE066}"/>
+    <hyperlink ref="C193" r:id="rId265" xr:uid="{A4BAABD5-348F-41F3-8841-10B0D643EECA}"/>
+    <hyperlink ref="C194" r:id="rId266" xr:uid="{1B3F75EB-8E0E-405F-B138-9E7CF7505969}"/>
+    <hyperlink ref="C263" r:id="rId267" xr:uid="{C8D6C0EA-6C6B-43FC-BA95-B371E76B5C6B}"/>
+    <hyperlink ref="C302" r:id="rId268" xr:uid="{E39213D3-3FEB-4C5E-805F-E1F54254424A}"/>
+    <hyperlink ref="C312" r:id="rId269" xr:uid="{7AC07C89-2A9E-44A9-9782-45A0FD6279B1}"/>
+    <hyperlink ref="C322" r:id="rId270" xr:uid="{C4B8267A-9CA7-49F3-931E-9A5BC06C0E1C}"/>
+    <hyperlink ref="C19" r:id="rId271" xr:uid="{0730B9D7-7CF9-467E-9186-797833419D70}"/>
+    <hyperlink ref="C73" r:id="rId272" xr:uid="{83635072-AE85-4714-A9AF-8E639AFE1068}"/>
+    <hyperlink ref="C100" r:id="rId273" xr:uid="{88B7E582-272F-441C-BEC8-0D2153F5EAC2}"/>
+    <hyperlink ref="C144" r:id="rId274" xr:uid="{1A8F64C0-73E4-4ACE-96EB-13CC88196EC1}"/>
+    <hyperlink ref="C176" r:id="rId275" xr:uid="{2F4BAF4F-03BD-4EF3-9C21-F887B197F8DB}"/>
+    <hyperlink ref="C195" r:id="rId276" xr:uid="{0AC9B9F6-32E4-4B4F-BA0A-A8C477E74493}"/>
+    <hyperlink ref="C213" r:id="rId277" xr:uid="{06272D06-9BDD-4025-AB9D-0A5EF46D8890}"/>
+    <hyperlink ref="C215" r:id="rId278" xr:uid="{DDC26E86-771C-4319-BF36-BEF42B9E2E35}"/>
+    <hyperlink ref="C238" r:id="rId279" xr:uid="{8373ABC3-0F99-4B1F-9BB5-419FF11AE965}"/>
+    <hyperlink ref="C18" r:id="rId280" xr:uid="{EFE56B3A-E422-46B6-BDD6-F2EEE19EAFB4}"/>
+    <hyperlink ref="C227" r:id="rId281" xr:uid="{1C503BC1-A856-48DB-8D6E-31F43E890FFE}"/>
+    <hyperlink ref="C17" r:id="rId282" xr:uid="{174E88D7-1FFF-4BAF-951B-CBA248EBB62F}"/>
+    <hyperlink ref="C65" r:id="rId283" xr:uid="{C4F1AAC4-E489-436E-B9EA-FC47CC24ED47}"/>
+    <hyperlink ref="C136" r:id="rId284" xr:uid="{CE29C529-E6E2-4AD7-9F55-171ECC785C1F}"/>
+    <hyperlink ref="C232" r:id="rId285" xr:uid="{FD478BFC-68DE-4981-A83B-A750BC57D152}"/>
+    <hyperlink ref="C237" r:id="rId286" xr:uid="{3CD6D8B3-F652-4E2C-B5A6-21F36FEB1091}"/>
+    <hyperlink ref="B66" r:id="rId287" tooltip="ReEntrancy.sol" display="https://github.com/gorbunovperm/blockgeeks_security/blob/master/ReEntrancy.sol" xr:uid="{22288719-9DE9-4D9A-9F2B-7C10C18057CE}"/>
+    <hyperlink ref="C66" r:id="rId288" xr:uid="{E46BDBA9-B642-4522-9FA6-CBB953AF9CAB}"/>
+    <hyperlink ref="C77" r:id="rId289" xr:uid="{45C0940E-EFE9-484E-A37D-652D518F612C}"/>
+    <hyperlink ref="C134" r:id="rId290" xr:uid="{E69DD44A-02E3-41D4-A0CA-81F501AD135A}"/>
+    <hyperlink ref="C258" r:id="rId291" xr:uid="{7B64C940-DED6-427C-94F1-4D89403E901A}"/>
+    <hyperlink ref="C13" r:id="rId292" xr:uid="{E3C3D6E6-3734-4D03-ACFE-F2A1731BA420}"/>
+    <hyperlink ref="C79" r:id="rId293" xr:uid="{8991136A-1EEC-474F-98B2-6C63A0AA201D}"/>
+    <hyperlink ref="C97" r:id="rId294" xr:uid="{F09050B8-6CE0-4272-B23B-4B1A24620CDC}"/>
+    <hyperlink ref="C234" r:id="rId295" xr:uid="{21D5FF01-6CEE-45CE-83BE-BF94DCC1A01E}"/>
+    <hyperlink ref="C40" r:id="rId296" xr:uid="{9347DF1D-6712-46CE-AC71-EE935411AFE5}"/>
+    <hyperlink ref="C42" r:id="rId297" xr:uid="{BF1565F9-938C-49A4-A44F-F10787545643}"/>
+    <hyperlink ref="C47" r:id="rId298" xr:uid="{23BC754C-885A-4907-8254-E22C03B1538E}"/>
+    <hyperlink ref="C49" r:id="rId299" xr:uid="{02DDE460-10F5-4F41-BAEC-AC8629D9DA1E}"/>
+    <hyperlink ref="C50" r:id="rId300" xr:uid="{B375C7CA-C8DB-4494-95B1-BDB683F7A605}"/>
+    <hyperlink ref="C53" r:id="rId301" xr:uid="{75EAA33E-2992-4551-996D-E63BE156955F}"/>
+    <hyperlink ref="C59" r:id="rId302" xr:uid="{A0E94720-CC92-4326-80E3-ACD8EDB9F9A2}"/>
+    <hyperlink ref="C67" r:id="rId303" xr:uid="{3A503FEE-B038-4A4C-B88B-62FE0DCBC838}"/>
+    <hyperlink ref="C68" r:id="rId304" xr:uid="{108B1178-0C29-4167-88BF-E4B852E837F5}"/>
+    <hyperlink ref="C69" r:id="rId305" xr:uid="{B09952EF-B42C-4217-BDA8-D1D8456D2D1D}"/>
+    <hyperlink ref="C70" r:id="rId306" xr:uid="{B883A4F8-C90F-435A-83F1-29C320888A82}"/>
+    <hyperlink ref="C71" r:id="rId307" xr:uid="{1C9C0D60-34B6-44E1-96BC-AABF2F07AC65}"/>
+    <hyperlink ref="C101" r:id="rId308" xr:uid="{829C5099-D651-4381-98B8-0500F6258244}"/>
+    <hyperlink ref="C102" r:id="rId309" xr:uid="{84682E16-D306-4242-94FC-B989D3AB8DB1}"/>
+    <hyperlink ref="C103" r:id="rId310" xr:uid="{FB983900-559F-4BD9-9A84-487CEAFDF97C}"/>
+    <hyperlink ref="C117" r:id="rId311" xr:uid="{184D0C3C-F52A-4904-9E7E-D87D708A26B3}"/>
+    <hyperlink ref="C118" r:id="rId312" xr:uid="{DD4A81CD-F376-4A75-ACFB-6CCF07006DBC}"/>
+    <hyperlink ref="C125" r:id="rId313" xr:uid="{C1A887BF-37B4-4920-98F6-770C819CA3CF}"/>
+    <hyperlink ref="C135" r:id="rId314" xr:uid="{261BF49A-49B1-401A-B8C7-0CCAE7BF4A7B}"/>
+    <hyperlink ref="C154" r:id="rId315" xr:uid="{9DEB55D1-5CCD-45DD-970F-4D2E60D432BD}"/>
+    <hyperlink ref="C156" r:id="rId316" xr:uid="{E5A2C63B-3B8F-4D65-8F70-CEABA899E21D}"/>
+    <hyperlink ref="C157" r:id="rId317" xr:uid="{7BDB12FE-6BD4-4D20-8ABB-1F0A01BD77FD}"/>
+    <hyperlink ref="C190" r:id="rId318" xr:uid="{5E44E082-298B-46C0-82EC-9C4FB57A7690}"/>
+    <hyperlink ref="C214" r:id="rId319" xr:uid="{1785FF4D-DA73-4327-8C85-BF968D860F73}"/>
+    <hyperlink ref="C252" r:id="rId320" xr:uid="{B854A9FB-F99E-4043-97C8-F21590375927}"/>
+    <hyperlink ref="C254" r:id="rId321" xr:uid="{4BECB9C2-89E6-4C1F-8E45-B9E51E422650}"/>
+    <hyperlink ref="C260" r:id="rId322" xr:uid="{8F03DF25-B895-4301-A394-91F25FACD4A6}"/>
+    <hyperlink ref="C271" r:id="rId323" xr:uid="{F5F8A630-9FA4-4D94-B64B-66919285E9F5}"/>
+    <hyperlink ref="C305" r:id="rId324" xr:uid="{9878FEE9-2FA7-440A-91CA-18AAD319BB7E}"/>
+    <hyperlink ref="C306" r:id="rId325" xr:uid="{E1886E0E-0FF4-4C0E-AD7F-2BB1F88A8532}"/>
+    <hyperlink ref="C309" r:id="rId326" xr:uid="{2BBD5E7F-3D10-4106-8B89-DE5121EA089B}"/>
+    <hyperlink ref="C313" r:id="rId327" xr:uid="{839DAEC5-3DAE-4B01-8FA5-2D9166C93308}"/>
+    <hyperlink ref="C317" r:id="rId328" xr:uid="{D0416FAB-DD8A-41E9-8905-36C7C3501B0A}"/>
+    <hyperlink ref="C318" r:id="rId329" xr:uid="{70AAD6B5-190B-495B-9E9C-F62F5F46F916}"/>
+    <hyperlink ref="C61" r:id="rId330" xr:uid="{797B390B-079B-4C4F-8D28-2B973A11D296}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId217"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId331"/>
 </worksheet>
 </file>